--- a/amazon_kids_clothes.xlsx
+++ b/amazon_kids_clothes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,15 +511,20 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Bottom Style</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Product URL</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Image URL</t>
         </is>
@@ -528,16 +533,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AJ DEZINES Girls Sharara Kurta Set | Georgette Sleeveless Kurti Set | Ethnic Wear for Girls | Foil Printed Sharara Suit | Stylish Kids Kurta for Festivals Weddings &amp; Special Occasions</t>
+          <t>Kid's Printed Silk Kurta and Sharara with Dupatta Set | Printed Salwar Suit Set for Girls | Ethnic wear traditional Dress for kids girls</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Visit the AJ DEZINES Store</t>
+          <t>Brand: MITUKART</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -550,30 +559,35 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>https://www.amazon.in/sspa/click?ie=UTF8&amp;spc=MTo1NzYwOTExODg3NzQ4MzI0OjE3NzEwNjUzNDg6c3BfYXRmOjMwMDQ5MTc3MzQ4OTQzMjo6MDo6&amp;url=%2FAJ-DEZINES-Print-Sleeveless-Sharara%2Fdp%2FB0BSS36314%2Fref%3Dsr_1_1_sspa%3Fdib%3DeyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9H4mdcHU7eGQTYCNKMA5n0G9aX_KO-8_FuJJyv_IrC__5C4cF1Y2DY-MHKBuxU2DO6JNpqOvDD5xZhTn4V0ffgb31XWa8eaq0r2JVgdn6cLWDYP7-knE5q3_cndQSr_upIKeRufE8Zj1cZ41wqAGTUoSslJiQSWDSLGCdbuwQu02Z3bnnvfyZk7VPzsXIaS2fOgX43vxPYVmEp_bvY2fpReAVez1S9TdjwCXHFl1KUZQo2FlHAeK70QlL-19UcDW3GSUBZDLrBkogL0BrJ3Y16I.4KfCjxB6k8a_CA63jzCGbr3sclaCDtNHEbx1P14LcQ8%26dib_tag%3Dse%26keywords%3Dethnic%2Bdresses%2Bfor%2Bkids%2Bgirls%26qid%3D1771065348%26sr%3D8-1-spons%26aref%3D5uqWVLNaaA%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1&amp;aref=5uqWVLNaaA&amp;sp_cr=ZAZ</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/617H+tCvmPL._SX522_.jpg</t>
+          <t>https://www.amazon.in/MITUKART-Printed-Sharara-Dupatta-traditional/dp/B0GG4WM5LN/ref=sr_1_5?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-5</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41ENa2JAKWL._SY500_.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cotton Salwar Suit Set for Baby Girls - Multicolor Ethnic Wear Dress, Traditional Coord Set for Kids</t>
+          <t>Naixa Girls Rayon Fabric Floral Printed 3/4 Sleeve Sharara Dress Set For All Occasion salwar suit</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Visit the LITTLE GINNIE Store</t>
+          <t>Visit the Naixa Store</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -586,30 +600,35 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>https://www.amazon.in/sspa/click?ie=UTF8&amp;spc=MTo1NzYwOTExODg3NzQ4MzI0OjE3NzEwNjUzNDg6c3BfYXRmOjMwMDQzNjY5MjQ2MDgzMjo6MDo6&amp;url=%2FLITTLE-GINNIE-Cotton-Salwar-Girls%2Fdp%2FB0DKG5V391%2Fref%3Dsr_1_2_sspa%3Fdib%3DeyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9H4mdcHU7eGQTYCNKMA5n0G9aX_KO-8_FuJJyv_IrC__5C4cF1Y2DY-MHKBuxU2DO6JNpqOvDD5xZhTn4V0ffgb31XWa8eaq0r2JVgdn6cLWDYP7-knE5q3_cndQSr_upIKeRufE8Zj1cZ41wqAGTUoSslJiQSWDSLGCdbuwQu02Z3bnnvfyZk7VPzsXIaS2fOgX43vxPYVmEp_bvY2fpReAVez1S9TdjwCXHFl1KUZQo2FlHAeK70QlL-19UcDW3GSUBZDLrBkogL0BrJ3Y16I.4KfCjxB6k8a_CA63jzCGbr3sclaCDtNHEbx1P14LcQ8%26dib_tag%3Dse%26keywords%3Dethnic%2Bdresses%2Bfor%2Bkids%2Bgirls%26qid%3D1771065348%26sr%3D8-2-spons%26aref%3DZeLFYJ1ouj%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1&amp;aref=ZeLFYJ1ouj&amp;sp_cr=ZAZ</t>
-        </is>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/517--S5zTEL._SX522_.jpg</t>
+          <t>https://www.amazon.in/Naixa-Fabric-Floral-Printed-Sharara/dp/B0CW9JVHN6/ref=sr_1_6?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-6</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71-Tkj+7XrL._SY550_.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>New Badshah Dressesn Ethnic Kids Girls Kurta Straight Pant with Silky Dupatta Dress Set, Cotton Rayon Fabric</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Visit the Amazon Brand - Symbol Store</t>
+          <t>Brand: Generic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -622,30 +641,35 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>https://www.amazon.in/sspa/click?ie=UTF8&amp;spc=MTo1NzYwOTExODg3NzQ4MzI0OjE3NzEwNjUzNDg6c3BfYXRmOjMwMDkwNjg5NTkwMTEzMjo6MDo6&amp;url=%2FAmazon-Brand-Embroidered-Organza-Dupatta%2Fdp%2FB0DFWF6HT3%2Fref%3Dsr_1_3_sspa%3Fdib%3DeyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9H4mdcHU7eGQTYCNKMA5n0G9aX_KO-8_FuJJyv_IrC__5C4cF1Y2DY-MHKBuxU2DO6JNpqOvDD5xZhTn4V0ffgb31XWa8eaq0r2JVgdn6cLWDYP7-knE5q3_cndQSr_upIKeRufE8Zj1cZ41wqAGTUoSslJiQSWDSLGCdbuwQu02Z3bnnvfyZk7VPzsXIaS2fOgX43vxPYVmEp_bvY2fpReAVez1S9TdjwCXHFl1KUZQo2FlHAeK70QlL-19UcDW3GSUBZDLrBkogL0BrJ3Y16I.4KfCjxB6k8a_CA63jzCGbr3sclaCDtNHEbx1P14LcQ8%26dib_tag%3Dse%26keywords%3Dethnic%2Bdresses%2Bfor%2Bkids%2Bgirls%26qid%3D1771065348%26sr%3D8-3-spons%26aref%3DThiMwyMwfY%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1&amp;aref=ThiMwyMwfY&amp;sp_cr=ZAZ</t>
-        </is>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71Xx2RkcywL._SY550_.jpg</t>
+          <t>https://www.amazon.in/Badshah-Dressesn-Straight-Dupatta-Suitable/dp/B0CZ7GQP7B/ref=sr_1_7?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-7</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/416Hih0ryfL._SY500_.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>superminis Girls Cotton Floral Printed Gotta Work 3/4 Sleeves Sharara Suit Ethnic Wear Set</t>
+          <t>Stanwells Kids Baby Girls Lehenga Choli Set Fleared Pattern Dress Sleevless Readymade Ethnic Traditional Full Length Indian Girl Lehnga Choli Set (6Months-7 Years)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Visit the superminis Store</t>
+          <t>Visit the Stanwells Kids Store</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -658,30 +682,35 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>https://www.amazon.in/sspa/click?ie=UTF8&amp;spc=MTo1NzYwOTExODg3NzQ4MzI0OjE3NzEwNjUzNDg6c3BfYXRmOjMwMDQ1MTc5ODYzNzgzMjo6MDo6&amp;url=%2Fsuperminis-Printed-Sleeves-Matching-Sharara%2Fdp%2FB0DRVC5CNT%2Fref%3Dsr_1_4_sspa%3Fdib%3DeyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9H4mdcHU7eGQTYCNKMA5n0G9aX_KO-8_FuJJyv_IrC__5C4cF1Y2DY-MHKBuxU2DO6JNpqOvDD5xZhTn4V0ffgb31XWa8eaq0r2JVgdn6cLWDYP7-knE5q3_cndQSr_upIKeRufE8Zj1cZ41wqAGTUoSslJiQSWDSLGCdbuwQu02Z3bnnvfyZk7VPzsXIaS2fOgX43vxPYVmEp_bvY2fpReAVez1S9TdjwCXHFl1KUZQo2FlHAeK70QlL-19UcDW3GSUBZDLrBkogL0BrJ3Y16I.4KfCjxB6k8a_CA63jzCGbr3sclaCDtNHEbx1P14LcQ8%26dib_tag%3Dse%26keywords%3Dethnic%2Bdresses%2Bfor%2Bkids%2Bgirls%26qid%3D1771065348%26sr%3D8-4-spons%26aref%3DIdeJ9BfKFg%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1&amp;aref=IdeJ9BfKFg&amp;sp_cr=ZAZ</t>
-        </is>
-      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/6169VPU6pJL._SX522_.jpg</t>
+          <t>https://aax-eu-zaz.amazon.in/x/c/JEZwksldrMAtmkuSFaXmEYkAAAGcXAxQgQoAAAH2AQBvbm9fdHhuX2JpZDIgICBvbm9fdHhuX2ltcDIgICDHxtYs/clv1c_ek-wBHXWUrbe3jO2Z8p873dcuEsGb28Jb_QJ1CLIyp7eQAYauSzMonBZk5EpMj8M7_NQSfzI6ULviiUkvIpo4dRYqxU4sBTydb9J_9Xl2I4-iA39zLRlay564_EsdtI-ZjZ4iXG_7E5FkwzpqRdPgwDbp9vU1lRBw-UwyS255B6v-ax3D8lTWTvt0apUVS5tGRGP4E-Tz8fmdOb2ZNjkt2ySAAIelmK6TcgStYWTcP2TcDVlvGlQp0xQqpC9VtFQ5ZJ2VALBE4IesMMefILDMRLviCRXXXQ5Pzd8fEPoxhX6-2-XpOumlaNgd51v3ELXKlzqnkdZRAcGw1Xp-DeEqlYeqg48PIQnlTdHlImmfi2sZbHg45s4k3KCgK2AFMwqN9Wkvt7btb2LVtC1gB3v321uaPn7lz773hfd9AZfVFVqpy5wlrX1VpnaYWdSNHwVeY8erJJqEOkZInD32fRYoxIZiT43E427iwrVQhQzPz-1EgFY018rOAXP8A1n3zPKMjWjp5tXNB4yR1o6-55TPpy5WMbv1ot7EiPzmCz5MGs0FRsqd38Dwmxdzd7Mwc4wdFf13LhjILAtleX-DPlUNSqAjjINKQ5lC907bek_fWLFEPjkjC0kVxDpU50FIs0CfZ8PTjv2iVcKtpCEt11WylCHBHgur8iwlcR5zS5w5Ldbgq8kMg6MvrXrgzUeWqX6flTR5R6a9iwncfkCClHZtgn2XQS9Z5ry8oLdfDQoPxkl4qAHl3QwPF59ShslodWsy1UM3Ul9u2rvG00FR05I9M7NeDCnDW_98N8i_UAynQpmRG-3KTpDGR8jRMOB1IvnmKfvo79xUbD2_nDVdegCMvOmNiGn6DX4tGdZIOWH33BbkWwtjRYEBMKkiSTdO4IbK3ngzay1Utpil-TgY49F3VlyF9ADUVrQEMuqKx5KxOt4yO6b_le2NP2QwbKGB3gIK9fugKmtLUf1P43AGRp25LXe-W7hMljwKWZaL7QzVheIs31dcj-2Ls1FA2ecXexXtMj1c2PeT38HXEne1tBeTUfCMjcV7vraH27Z6LHJmkgEsZQGb1WzIKootCtFivbFzKdbHFhhae_Kh2Bn1EQLzJv2IT9ep6dJ4-47oplSlkgAoilJPKik84q_LlXX6ft2lUtFsIf38IkRvbKDFTXWR_n8heaMK3HbUEYoGkxflne6ixWGw8LagNGOe3E-xVMYN30zyrR7fWa56nlecl9sTW8iagp6onw-6ztIEI5LAIW4inXWspw3Wnm4q8Pa8eLWvPLEJq1DLtamS9W4CZnmb4NrRwtxXTVLhbyGfOnQsXZB33N7f5XWXcYPYrIKpvgde5ZNC7S7kcQTJX0cCnULCLof04IFjcG1lURevqJJuob1BuDLybgUgImAACgwRX2ESLQICmkJHsf4jgYFiaKVQAtJRHSlaYE_PCbZRFciN_8IrimEHaFPkX43UK6jfuvcHO7LlIwd3xzNcHCLQwi2ud0nBMkgu7bmLomrPpOYVanDJE7jCF8_uyXJoCQrZd0KK_qK4sFTbjV17Z9vqU9Y4f0wFX9C-IIzP1MvuSknqdOQL3jHUgFR3pzPU3NP6IZ4Ghxo0ad-8C4dHD2p-j3dGMHMCwis9T-Gs4pM4rEkfGnI-sJs7hSmt0DFNypoI7jpIC-fKAboTi3h0c6v_ZreqQ/https://www.amazon.in/Stanwells-Kids-Readymade-Lehenga-AM031-O18_Orange_2-3/dp/B08QFV8YJ6/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.7f127af2-01e9-4e9a-857b-f7f598682cc6%3Aamzn1.sym.7f127af2-01e9-4e9a-857b-f7f598682cc6&amp;cv_ct_cx=ethnic+dresses+for+kids+girls&amp;keywords=ethnic+dresses+for+kids+girls&amp;pd_rd_i=B08QFV8YJ6&amp;pd_rd_r=66e8c274-66e9-487d-83ed-c79341e17884&amp;pd_rd_w=GQWKv&amp;pd_rd_wg=QGbjO&amp;pf_rd_p=7f127af2-01e9-4e9a-857b-f7f598682cc6&amp;pf_rd_r=32698WS0W00FD6MG8TRB&amp;qid=1771070836&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=1-1-9131241a-a358-4619-a7b8-0f5a65d91d81</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/511xRUjtCoL._SY550_.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Naixa Girls Rayon Fabric Floral Printed 3/4 Sleeve Sharara Dress Set For All Occasion salwar suit</t>
+          <t>Stanwells Kids Baby Girls Lehenga Choli Set Fleared Pattern Dress Sleevless Readymade Ethnic Traditional Full Length Indian Girl Lehnga Choli Set (6Months-7 Years)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Visit the Naixa Store</t>
+          <t>Visit the Stanwells Kids Store</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -694,14 +723,5784 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>https://www.amazon.in/Naixa-Fabric-Floral-Printed-Sharara/dp/B0CW9JVHN6/ref=sr_1_5?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9H4mdcHU7eGQTYCNKMA5n0G9aX_KO-8_FuJJyv_IrC__5C4cF1Y2DY-MHKBuxU2DO6JNpqOvDD5xZhTn4V0ffgb31XWa8eaq0r2JVgdn6cLWDYP7-knE5q3_cndQSr_upIKeRufE8Zj1cZ41wqAGTUoSslJiQSWDSLGCdbuwQu02Z3bnnvfyZk7VPzsXIaS2fOgX43vxPYVmEp_bvY2fpReAVez1S9TdjwCXHFl1KUZQo2FlHAeK70QlL-19UcDW3GSUBZDLrBkogL0BrJ3Y16I.4KfCjxB6k8a_CA63jzCGbr3sclaCDtNHEbx1P14LcQ8&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771065348&amp;sr=8-5</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71-Tkj+7XrL._SY550_.jpg</t>
+          <t>https://aax-eu-zaz.amazon.in/x/c/JEZwksldrMAtmkuSFaXmEYkAAAGcXAxQgQoAAAH2AQBvbm9fdHhuX2JpZDIgICBvbm9fdHhuX2ltcDIgICDHxtYs/clv1c_ek-wBHXWUrbe3jO2Z8p873dcuEsGb28Jb_QJ1CLIyp7eQAYauSzMonBZk5EpMj8M7_NQSfzI6ULviiUkvIpo4dRYqxU4sBTydb9J_9Xl2I4-iA39zLRlay564_EsdtI-ZjZ4iXG_7E5FkwzpqRdPgwDbp9vU1lRBw-UwyS255B6v-ax3D8lTWTvt0apUVS5tGRGP4E-Tz8fmdOb2ZNjkt2ySAAIelmK6TcgStYWTcP2TcDVlvGlQp0xQqpC9VtFQ5ZJ2VALBE4IesMMefILDMRLviCRXXXQ5Pzd8fEPoxhX6-2-XpOumlaNgd51v3ELXKlzqnkdZRAcGw1Xp-DeEqlYeqg48PIQnlTdHlImmfi2sZbHg45s4k3KCgK2AFMwqN9Wkvt7btb2LVtC1gB3v321uaPn7lz773hfd9AZfVFVqpy5wlrX1VpnaYWdSNHwVeY8erJJqEOkZInD32fRYoxIZiT43E427iwrVQhQzPz-1EgFY018rOAXP8A1n3zPKMjWjp5tXNB4yR1o6-55TPpy5WMbv1ot7EiPzmCz5MGs0FRsqd38Dwmxdzd7Mwc4wdFf13LhjILAtleX-DPlUNSqAjjINKQ5lC907bek_fWLFEPjkjC0kVxDpU50FIs0CfZ8PTjv2iVcKtpCEt11WylCHBHgur8iwlcR5zS5w5Ldbgq8kMg6MvrXrgzUeWqX6flTR5R6a9iwncfkCClHZtgn2XQS9Z5ry8oLdfDQoPxkl4qAHl3QwPF59ShslodWsy1UM3Ul9u2rvG00FR05I9M7NeDCnDW_98N8i_UAynQpmRG-3KTpDGR8jRMOB1IvnmKfvo79xUbD2_nDVdegCMvOmNiGn6DX4tGdZIOWH33BbkWwtjRYEBMKkiSTdO4IbK3ngzay1Utpil-TgY49F3VlyF9ADUVrQEMuqKx5KxOt4yO6b_le2NP2QwbKGB3gIK9fugKmtLUf1P43AGRp25LXe-W7hMljwKWZaL7QzVheIs31dcj-2Ls1FA2ecXexXtMj1c2PeT38HXEne1tBeTUfCMjcV7vraH27Z6LHJmkgEsZQGb1WzIKootCtFivbFzKdbHFhhae_Kh2Bn1EQLzJv2IT9ep6dJ4-47oplSlkgAoilJPKik84q_LlXX6ft2lUtFsIf38IkRvbKDFTXWR_n8heaMK3HbUEYoGkxflne6ixWGw8LagNGOe3E-xVMYN30zyrR7fWa56nlecl9sTW8iagp6onw-6ztIEI5LAIW4inXWspw3Wnm4q8Pa8eLWvPLEJq1DLtamS9W4CZnmb4NrRwtxXTVLhbyGfOnQsXZB33N7f5XWXcYPYrIKpvgde5ZNC7S7kcQTJX0cCnULCLof04IFjcG1lURevqJJuob1BuDLybgUgImAACgwRX2ESLQICmkJHsf4jgYFiaKVQAtJRHSlaYE_PCbZRFciN_8IrimEHaFPkX43UK6jfuvcHO7LlIwd3xzNcHCLQwi2ud0nBMkgu7bmLomrPpOYVanDJE7jCF8_uyXJoCQrZd0KK_qK4sFTbjV17Z9vqU9Y4f0wFX9C-IIzP1MvuSknqdOQL3jHUgFR3pzPU3NP6IZ4Ghxo0ad-8C4dHD2p-j3dGMHMCwis9T-Gs4pM4rEkfGnI-sJs7hSmt0DFNypoI7jpIC-fKAboTi3h0c6v_ZreqQ/https://www.amazon.in/Stanwells-Kids-Readymade-Lehenga-AM031-O18_Orange_2-3/dp/B08QFV8YJ6/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.7f127af2-01e9-4e9a-857b-f7f598682cc6%3Aamzn1.sym.7f127af2-01e9-4e9a-857b-f7f598682cc6&amp;cv_ct_cx=ethnic+dresses+for+kids+girls&amp;keywords=ethnic+dresses+for+kids+girls&amp;pd_rd_i=B08QFV8YJ6&amp;pd_rd_r=66e8c274-66e9-487d-83ed-c79341e17884&amp;pd_rd_w=GQWKv&amp;pd_rd_wg=QGbjO&amp;pf_rd_p=7f127af2-01e9-4e9a-857b-f7f598682cc6&amp;pf_rd_r=32698WS0W00FD6MG8TRB&amp;qid=1771070836&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=1-1-9131241a-a358-4619-a7b8-0f5a65d91d81</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/511xRUjtCoL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Georgette Embroidery Sequin Kurta, Skirt and Dupatta Set for Girls – Ethnic Party Dress I Birthday Trendy Classic Outfit I Square Neck Sleeveless</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Visit the SPAMitude Store</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/SPAMitude-Georgette-Embroidery-Birthday-Sleeveless/dp/B0G2CHRSPL/ref=sr_1_8?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-8</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41CPBKeL-vL._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FELIZ THE DESIGNER STUDIO Girls Readymade Lehenga Choli Set</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Visit the FELIZ THE DESIGNER STUDIO Store</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Designer-Studio-Readymade-Lehenga-Material/dp/B0DDH5G43Y/ref=sr_1_9?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-9</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81raHdjMYhL._SX679_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Angel f Studio Girls Palazzo Set</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Visit the Angel f Studio Store</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Angel-Studio-Embroidered-Palazzos-Dupatta/dp/B0CTMQF72N/ref=sr_1_10?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-10</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61cAcI-2+CL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A.T.U.N. (ALL THINGS UBER NICE) Baby Girls Cotton Ethnic Floral Lehenga Choli Set with Lace &amp; Dupatta | Traditional 3-Piece Festive Outfit for Kids</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Visit the A.T.U.N. (ALL THINGS UBER NICE) Store</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/T-U-N-ALL-THINGS-UBER-NICE/dp/B0FV3GTS9L/ref=sr_1_11?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-11</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/619Inxk5ZiL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>White Button new lemon sequence work with floral print jacket style indowestern palazzo set for girls</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Brand: White Button</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/White-Button-jacket-indowestern-Years/dp/B0D7S5Q67Z/ref=sr_1_12?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-12</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61eUatCO4xL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girls Georgette Salwar Suit Set|Girls Ethnic Salwar Suit Set</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-FDGSET00189-OWT-White_13-14Yrs/dp/B0DKF7RN71/ref=sr_1_13?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-13</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71JAMZdXJSL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Naixa Girl's Rayon Blend Floral Pattern Anarkali Dress Payjama Dupatta Set with 3/4 Sleeve V- Neck and Drawstring Closure Type| Kurta Sharara Set for Girl's</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Visit the Naixa Store</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Naixa-Drawstring-Anarkali-Churidar-Payjama/dp/B0CW6GR98H/ref=sr_1_14?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-14</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71jaflBu9AL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Arshia Fashions Girls Ethnic Wear Kurti and Dhoti Pant Set</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Visit the Arshia Fashions Store</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Arshia-Fashions-Girls-Ethnic-Kurti/dp/B0CSF86M91/ref=sr_1_15?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-15</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81ODFZVxHIL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Delima Fashion Girls Embroidered Tafetta Silk Full Stitched Lehenga Choli Set | Latest Lehenga Choli | Ethnic Wear | Readymade Traditional Dress For Kids Girls</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Embroidered-Stitched-Readymade-Traditional/dp/B0DC4JHP9D/ref=sr_1_16?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-16</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/917XwS4imhL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>White Button Girls Girls Gown</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Brand: White Button</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/White-Button-Ethnic-Party-Girls/dp/B0DTQ9SB7D/ref=sr_1_17?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-17</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71kedCnBp0L._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BLOOD PANTHER Girls Floral Printed Cotton Blend Co-Ord Set – Stylish Summer Outfit with Crop Top &amp; Wide-Leg Pants – Dress for Kids</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Visit the BLOOD PANTHER Store</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Women</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/BLOOD-PANTHER-Floral-Printed-Cotton/dp/B0FR8XNJTP/ref=sr_1_18?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-18</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61rbRvGshTL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AJ DEZINES Girls Sharara Kurta Set | Georgette Sleeveless Kurti Set | Ethnic Wear for Girls | Foil Printed Sharara Suit | Stylish Kids Kurta for Festivals Weddings &amp; Special Occasions</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Visit the AJ DEZINES Store</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/AJ-DEZINES-Print-Sleeveless-Sharara/dp/B0BSS3RYY6/ref=sr_1_19?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-19</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/617H+tCvmPL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Girls Cotton Kurta Pant Set with Dupatta | Printed Salwar Suit Set | Ethnic Dress for Kids Girls</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Brand: Generic</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>womens</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Cotton-Dupatta-Printed-Salwar-SS-YELLOW/dp/B0G38ZTFBK/ref=sr_1_20?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-20</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51NRIWXZcgL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Aarika Girls Ethnic Wear Navy Blue Colour Sequin Embroidery/Lace Work Georgette Kurti Patiala Set With Dupatta</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Visit the Aarika Store</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Aarika-Ethnic-Embroidery-Georgette-Patiala/dp/B0CVQCW2CJ/ref=sr_1_25?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-25</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61a+w+2SKVL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>White Button Girl's Silk Blend Patiala Suit</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Brand: White Button</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/White-Button-Girls-Patiala-Fuchsia/dp/B08QR5V3FC/ref=sr_1_26?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-26</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/7185SyMHPwL._SX466_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Angel f Studio Baby-Girls pattu Pavadai for Kids</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Visit the Angel f Studio Store</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>baby-girls</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Angel-Studio-Cotton-Festive-Wedding/dp/B0C14ZR1ZS/ref=sr_1_27?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-27</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61sABQuQi3L._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>White Button Girls Polyester Blend Readymade Lehenga Choli Set</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Brand: White Button</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/White-Button-traditional-pavadai-Jecquard/dp/B0B49D4KD5/ref=sr_1_28?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-28</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61QohH7Cp0L._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>White Button new girl's Sharara style Georgette Salwar Suit for kids</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Brand: White Button</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/White-Button-Yellow-floral-sharara/dp/B0DZN9Z816/ref=sr_1_29?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-29</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51Qgsanf53L._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girl's Crepe Silk Maxi Length Printed Dress|Kids Dress|Dress for Girls</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-Digital-FDGDRS00131-Blue_13-14/dp/B0D8YN182Q/ref=sr_1_30?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-30</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81FUFjO4k+L._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Naixa Girl's Rayon Chanderi Yellow White Solid Printed Top With Sharara and Dupatta 3/4 Sleeve | Kurta Sharara Set For Girl's</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Visit the Naixa Store</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Naixa-Yellow-Chanderi-Sharara-SE17_9-10/dp/B0DDHHPVPN/ref=sr_1_31?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-31</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61QUBkWbHhL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>R J ONLINE Girls Georgette Stylish Readymde Lehenga Choli Set- Kids Party Dress - Traditional Ethnic Dress - Girls</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Brand: RJ ONLINE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/ONLINE-Georgette-Stylish-Readymde-Lehenga/dp/B0DC6SWC8D/ref=sr_1_32?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-32</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71obadwlFyL._SX466_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>South Indian Traditional Pattu Pavadai Tapeta Silk Frock Dress for Baby Girls</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visit the COMRATE Store</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/COMRATE-Indian-Traditional-Pavadai-Tapeta/dp/B0CR2Y8GHP/ref=sr_1_33?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-33</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81QhRK+xnaL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Girls Embroidred Pattu Sattai Gown Dress Festive Party Maxi Dress, Long Length Ethnic Wear Wedding Gown for Girls, Birthday Dress for Girls</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Brand: MAVIXA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Girls-Dress-13-14-Years-Maroon/dp/B0CFHV6Q7C/ref=sr_1_34?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-34</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61PoSMyiJSL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>superminis Baby Girl's Cotton Sanganeri/Floral Printed Frock Style Kurti With Printed Sharara Dress Clothing Set</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Visit the superminis Store</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Superminis-Cotton-Sanganeri-Printed-Sharara/dp/B0BNGMN77N/ref=sr_1_35?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-35</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81kiN4OZA8L._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GORLYA Girl's Rayon Printed Sleeveless Kurta and Bottom Clothing Set For 1-10 Years Girl's</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Brand: GORLYA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/GORLYA-Sleeveless-Clothing-Weddings-Functions/dp/B0DV38F9T3/ref=sr_1_36?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-36</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71lhKphdCQL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TotzTouch Baby Girl Ethnic Wear Dress | Traditional South Indian Pattu Langa for Girls</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Visit the TotzTouch Store</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/TotzTouch-Indian-Traditional-Embroidered-Jacquard/dp/B0DQXTSS7Y/ref=sr_1_37?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-37</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/813umhwjOkL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>White Button Girls Sharara suit</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Brand: White Button</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/White-Button-latest-sharara-girls/dp/B0BQZWHFDK/ref=sr_1_38?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-38</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61DvDJj-5yL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>White Button Baby Girl's Jacquard Readymade Lehenga Choli</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Brand: White Button</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/White-Button-pavadai-Jecquard-Lehenga/dp/B09R6WJ7TS/ref=sr_1_39?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-39</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61kVemYlthL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girl's Chanderi Ethnic Top and Palazzo Set |Kids Salwar Suit Set|Embroidered Suit for Girls</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-Chanderi-FDGSET00361-28_Yellow_7-8/dp/B0FN3ZR1NC/ref=sr_1_40?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-40</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/719WngwhgQL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Pspeaches Girls Polyester Red Blue Floral Readymade Lehenga Choli Set</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Pspeaches-Girls-Floral-Lehenga-Red-10-12Y/dp/B0CFHJTG4D/ref=sr_1_41?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-41</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/612CmeSyOGL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>White Button Girls Girls Lehenga Choli</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Brand: White Button</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/White-Button-latest-readymade-Lehenga/dp/B0BPHR2YK4/ref=sr_1_42?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-42</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61I5WDPSgzL._SX466_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>A.T.U.N. (ALL THINGS UBER NICE) Girl's Anarkali Knee Length Set</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Visit the A.T.U.N. (ALL THINGS UBER NICE) Store</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/T-U-N-Girls-Ethnic-Anarkali-Palazzo/dp/B0BCGPJXKM/ref=sr_1_43?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-43</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61VR2rQ3t9L._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FELIZ THE DESIGNER STUDIO Kids Embroidery South Indian Traditional Pattu Pavadai Silk Blend Readymade Lehenga Choli Dress For Girls</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Visit the FELIZ THE DESIGNER STUDIO Store</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/FELIZ-DESIGNER-STUDIO-Embroidery-Traditional/dp/B0DX6BW9VD/ref=sr_1_44?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-44</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81gmllQTihL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>GORLYA Girls Ethnic Wear Rayon Flower Printed Readymade Lehenga Choli Set</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Brand: GORLYA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/GORLYA-Printed-Readymade-Lehenga-Multicolor/dp/B0CYQ8KQY6/ref=sr_1_45?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-45</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71rgoFbLArL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Girls Knee Length Flared Casual Dress - Party &amp; Western Outfit - Satin Frock for Girls 1 to 6 Years</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Brand: MITETHNIC</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/MITETHNIC-Girls-Length-Flared-Casual/dp/B0G5FBCB14/ref=sr_1_46?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-46</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51cm5DxvV0L._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girl's Chanderi Silk Embroidered Jumpsuit|Kids Dress|Jumpsuits for Girls|Kids Girls Dress</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-Embroidered-FDGJMP00116-40_Purple_13-14/dp/B0FK9WCMB9/ref=sr_1_47?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-47</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71zwaM055YL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ZillyMilly Girls Heavy Embroidered Readymade Lehenga Choli Set - Perfect for Ethnic, Party &amp; Wedding - Traditional Dress Kids - 2-8 Years</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Brand: Generic</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/ZillyMilly-Embroidered-Readymade-Stylish-Lehenga/dp/B0DPKKJX9Q/ref=sr_1_48?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-48</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81e6v0xPhxL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>South Indian Traditional Pattu Pavadai Jacquard Silk Frock Dress for Baby Girls</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Brand: Suzvan</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Suzvan-Indian-Traditional-Pavadai-Jacquard/dp/B0D7MJKP6J/ref=sr_1_49?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-49</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81lyl3w8uhL._SX425_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Aarika Girls Ethnic Wear Black Colour Printed/Mirror Lace Polyester Kurti Sharara Set</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Visit the Aarika Store</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Aarika-Girls-Polyester-Sharara-SH-30418_Yellow/dp/B0CHP62VGG/ref=sr_1_50?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-50</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61wN+T7e-xL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Pspeaches Polyester Girls Pink Purple Readymade Lehenga Set Blouse With Dupatta</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Visit the Pspeaches Girl's Blue Pink Cotton Readymade Lehenga Choli Set (Blue-10-12Y) Store</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Pspeaches-Orange-Lehenga-Dupatta-Pink-2-3Y/dp/B0CFLXGY12/ref=sr_1_51?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-51</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41ZKUzi1IdL._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>A.T.U.N. (ALL THINGS UBER NICE) Girls Cotton Ethnic Floral Lehenga Choli Set with Lace &amp; Dupatta | Traditional 3-Piece Festive Outfit for Kids</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Visit the A.T.U.N. (ALL THINGS UBER NICE) Store</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/T-U-N-ALL-THINGS-UBER-NICE/dp/B0FVDXLZBN/ref=sr_1_52?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-52</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/610b+L8SK3L._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Girls South Indian Traditional pattu Pavadai Tapeta Frock | South Indian Pattu Pavadai Ethnic Wear for Girl | Weddings &amp; Festival</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Brand: Grantha Fashion</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Grantha-Fashion-Traditional-Weddings-Festival/dp/B0FT7MKXD8/ref=sr_1_53?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-53</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51ZAwyHYikL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>A.T.U.N. (ALL THINGS UBER NICE) Elegant Embroidered Heavy Thread Work 3 Piece Salwar Suit Set with Dupatta for Girls | Traditional Festive Ethnic Wear Party Outfit</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Visit the A.T.U.N. (ALL THINGS UBER NICE) Store</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/T-U-N-ALL-THINGS-UBER-NICE/dp/B0FYDFDVHG/ref=sr_1_54?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-54</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51oVIHLTs-L._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girl's Slik Blend Embroidery Salwar Suit|Kids Salwar Suit Set|Embroidered Suit for Girls|Ethnic Wear|Girls Suit Set</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-Printed-FDGSET00230-32_Lightpink_9-10/dp/B0F88D3MT8/ref=sr_1_55?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-55</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71aAUFH8rfL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PW PLATYPUS WORLD New South Indian Traditional pattu Pavadai Tapeta Silk Frock for Baby Girls</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Visit the PW PLATYPUS WORLD Store</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>baby-girls</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/PW-PLATYPUS-WORLD-Traditional-Pavadai/dp/B0DXL8X5HQ/ref=sr_1_56?dib=eyJ2IjoiMSJ9.YtDSG5nBJwm_ARMUdUCU_LlBolqtjr5AeDCeBnJjU6y9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UO_TzIbvdMUK6W_WZR34pKozMcERTZ9cD17LBY7UBI8jW4F6MBUXPKheenYJQ4jJvYKeRufE8Zj1cZ41wqAGTUpOcS_QQ8BBVgvihQLbnq_ygFHHHfZGajeRQMTcrwKGZr4159iLyUGhTs9Be3P5kMrGD6phhkUPYDQlic8UvOAJbncHDSJ8B-dZI34OsXZB-u_EHoX1dZ4rXxpr0Ipq8pQ.-VGdJbYfIwvuf-Jgx2lOewWzGBMXUhOHb93RJ36jgpM&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771070836&amp;sr=8-56</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/A1aS4oaHNZL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>White Button Girls Polyester Blend New South Indian Traditional Pattu Pavadai Jecquard Readymade Lehenga Choli Dress</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Brand: White Button</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/White-Button-traditional-pavadai-Jecquard/dp/B0BTS8MBJG/ref=sr_1_53?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-53</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61kA13RmfSL._SX425_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Baby Girls Ethnic Wear Cotton Kurta Sharara Set (Size 0 Months &amp; Up To 4 Year)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Brand: KIDS PARYANIS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/KIDS-PARYANIS-Ethnic-Cotton-Sharara/dp/B0DBGC7JHJ/ref=sr_1_54?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-54</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51Dp5h6q2bL._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jwalin Girl’s Tabby Organza Lehenga Choli|Lehenga Choli For Girls|Lehenga For Girls|Girl Lehenga|Traditional Lehenga Choli For Girls</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Visit the Jwalin Store</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Jwalin-Organza-Lehenga-JWGLGC00154-36_Green_11-12Yrs/dp/B0DJCZR3QK/ref=sr_1_55?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-55</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81baRZ6oYCL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol Girls Salwar Suit</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Visit the Amazon Brand - Symbol Store</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Amazon-Brand-Symbol-Embroidered-Dupatta/dp/B0DFWCNBXL/ref=sr_1_56?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-56</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71n39bSXCYL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Helene Girl's Georgette Full Stitched Readymade Lehenga Choli | Printed Traditional Dress | Ethnic Wear for Girls</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Brand: Helene</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Helene-Georgette-Stitched-Readymade-Traditional/dp/B0CTTNVZL9/ref=sr_1_57?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-57</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/4165noBApML._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Girls Ethnic Wear Embroidery Cotton Blend Kurti Patiala Set with Dupatta for girls sleeveles dress</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Brand: Vraj Enterprises</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Vraj-Enterprises-Embroidery-Patiala-sleeveles/dp/B0GJBZ1DSJ/ref=sr_1_58?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-58</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41YpT4PvyPL._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>superminis Cotton Blend Baby Girl's Peplum Kurti With Dhoti Style Salwar Ethnic Dress Clothing Set</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Visit the superminis Store</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Superminis-Peplum-Salwar-Ethnic-Months/dp/B09XBYSDWR/ref=sr_1_59?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-59</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/813pOMD6s8L._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Stanwells Kids Baby Girls Lehenga Choli Set Fleared Pattern Dress Sleevless Readymade Ethnic Traditional Full Length Indian Girl Lehnga Choli Set (6Months-7 Years)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Visit the Stanwells Kids Store</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Stanwells-Kids-Readymade-Lehenga-AM031-O18_Orange_2-3/dp/B08QFV8YJ6/ref=sr_1_60?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-60</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/511xRUjtCoL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Delima Fashion Girls Taffeta Silk Stylish Readymde Lehenga Choli Set- Kids Party Dress - Traditional Ethnic Dress - Girls</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Brand: Generic</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Taffeta-Stylish-Readymde-Lehenga/dp/B0FHJNPWW7/ref=sr_1_61?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-61</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81LXhf3etZL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>A.T.U.N. (ALL THINGS UBER NICE) Baby Girls Neon Swiss dot Kurti in Gota Lacework with Sharara Set | Comfortable Cotton Ethnic Clothing Set</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Visit the A.T.U.N. (ALL THINGS UBER NICE) Store</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/T-U-N-ALL-THINGS-UBER-NICE/dp/B0FLDPF92T/ref=sr_1_62?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-62</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61orZvGNpXL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>superminis Girls Cotton Floral Printed Gotta Work 3/4 Sleeves Flared Design Kurti &amp; Sharara Set</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Visit the superminis Store</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/superminis-Relaxed-Printed-Sleeves-Sharara/dp/B0DRVXZZBK/ref=sr_1_63?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-63</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51OGiJYfGcL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BownBee Halter Neck Pure Cotton Fish Print Kurti with Harem for Girls- (Set of 1) Solid/Printed colorful full length fully stitched regular fit Ethnic wear dress for Kids</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Visit the BownBee Store</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>baby-girls</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/BownBee-Printed-colorful-stitched-Kids-Age_3/dp/B0D87MJFVS/ref=sr_1_64?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-64</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51CTHmy1nlL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>GORLYA Girls Girl's Lehenga Choli</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Brand: GORLYA</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/GORLYA-Vibrant-Multicolour-Printed-Lehenga/dp/B0CYLGNW8D/ref=sr_1_65?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-65</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61mr00dbNOL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Aarika Girls Ethnic Wear Dark Green Colour Sequin Embroidery Georgette Lehenga Saree With Attachable Dupatta</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Visit the Aarika Store</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Aarika-Embroidery-Georgette-Attachable-SR-26011-YELLOW-32/dp/B0FK3QGPCY/ref=sr_1_66?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-66</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51oeABHlS2L._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girl's Roman Silk Foil Printed Salwar Suit Set|Girls Ethnic Wear|Suit for Girls|Traditional Set</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-Traditional-FDGSET00304-28_Yellow_7-8/dp/B0FSS282BF/ref=sr_1_67?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-67</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/712wDb4XRaL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girl's Embroidered Maxi Dress with Dupatta|Ethnic Dress for Girls|Maxi Length Dress with Dupatta|Embroidered Dress|Long Dresses</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-Embroidered-FDGDRS00168-28_Mustard_7-8/dp/B0FJRCYNWT/ref=sr_1_68?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-68</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/710GvyF3DIL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>New south Indian traditional pattu pavadai pattu langa lehenga choli Jecquard Lehenga choli for girls dress</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Brand: Generic</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/traditional-pavadai-lehenga-Jecquard-Lehenga/dp/B0G5PZLL1W/ref=sr_1_73?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-73</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/319tsIKQZ8L._SX425_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Nautinati Girls Polka Printed Foil Print Ready to Wear Lehenga &amp; Blouse With Dupatta | Age 2-8 Years</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Visit the Nautinati Store</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/nauti-nati-Polyester-Lehenga-EW313-103_Light-Pink_2Y/dp/B0CHPDKLVK/ref=sr_1_74?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-74</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61iNb53LXwL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>South Indian Dress for Girls Traditional Ethnic Wear Kurta for Girls Lehenga Choli for Girls</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Brand: KRUPA CREATION</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>baby-girls</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/KRUPA-CREATION-Indian-Traditional-Lehenga/dp/B0D6RNWYL4/ref=sr_1_75?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-75</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/31qisvvgsaL._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Naixa Girl's Viscose Rayon Floral Print Blue Kurti with Sharara Bottom and Sleeveless Square Neck | Ready To Wear Set For Girl's</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Visit the Naixa Store</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Naixa-Viscose-Sleeveless-Occasion-NX10_9-10Y/dp/B0D45J4Z27/ref=sr_1_76?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-76</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61jJMR8UsTL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TAGAS Girls Embroidery Pattern Cap Sleeve Dress</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Visit the TAGAS Store</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Tagas-Girls-Embroidery-Pattren-Sleeve/dp/B0DK1W5Z3G/ref=sr_1_77?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-77</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61F3dVlLFxL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>New south Indian traditional pattu pavadai Jecquard Frock for girls Lehenga Choli</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Brand: Suzvan</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>baby-girls</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Suzvan-Indian-Traditional-Pavadai-Jecquard/dp/B0CKHNM4WZ/ref=sr_1_78?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-78</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/A1gjem0Q1tL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Girls Self Designed Premium Cotton Blend Top Pant Jacket | 3pcs Party Dress for Girls I V Neck Stylish Sleeve Design Dress for Birthday Girl</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Visit the SPAMitude Store</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/SPAMitude-Designed-Premium-Stylish-Birthday/dp/B0DR2S199J/ref=sr_1_79?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-79</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41q9BCofPnL._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>The Magic Wand Cotton Leheriya Printed Kurti Pant Set For kids Girls, Frill Sleeves Embellished Frock Type Kurta &amp; Dhoti Salwar, Ethnic Traditional Set For Festivals</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Visit the The Magic Wand Store</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Magic-Wand-Embellised-Traditional-Festivals/dp/B0FGWPFBLK/ref=sr_1_80?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-80</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71DQqy9tIwL._SX466_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>White Button Girls Jacquard New South Indian Traditional Pattu Pavadai Jecquard Readymade Lehenga Choli</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Brand: White Button</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/White-Button-traditional-Jecquard-choli/dp/B0D33LPN2P/ref=sr_1_81?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-81</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61kOlWLPo9L._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>superminis Baby Girl's Cotton Jaipuri Print One Side Off Shoulder Top/Kurti And Printed Lehnga/Skirt With Dori Closure Dress Clothing Set</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Visit the superminis Store</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Superminis-Jaipuri-Shoulder-Printed-Closure/dp/B092ST8HHZ/ref=sr_1_82?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-82</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/810X5UE-JMS._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Pspeaches Girls Cotton Yellow Turquoise Blue Printed Ready To Wear Readymade Lehenga Set Blouse With Dupatta</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Pspeaches-Printed-Lehenga-Dupatta-Yellow-10-12Y/dp/B0CFLW73D2/ref=sr_1_83?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-83</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/4180dtvhqEL._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girls Embroidered Maxi Dress|Ethnic Dress</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-Embroidered-FDGDRS00154-36_Maroon_11-12Yrs/dp/B0DKNLX2CY/ref=sr_1_84?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-84</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61E84wh390L._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Girl's Sugarcan Fabric Puff Sleeve Gown with V-Neckline Cinched Waist and Ruffle Hem</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Visit the MENSBIT Store</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/MENSBIT-Sugarcan-Fabric-V-Neckline-Cinched/dp/B0FKT8H9BB/ref=sr_1_85?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-85</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71TMkmcuUqL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Pure Soft Cotton Frock for Baby Girl 3/4 Bell Sleeves Dress with Single Pocket Stylish Knee Length Casual Dress for Girls with Astar/Lining</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Visit the KOSHMOSH Store</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Women</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/KOSHMOSH-Sleeves-Friendly-Stylish-4-5yrs/dp/B0F53MK62G/ref=sr_1_86?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-86</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71l+g6zGw8L._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Superminis Girls Sanganeri Prints Frock Style Cotton Kurti With Full Length Sharara Set</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Visit the superminis Store</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Superminis-Sanganeri-Prints-Cotton-Sharara/dp/B0C5761J64/ref=sr_1_87?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-87</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81NMASWGSFL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>superminis Baby Girl's Cotton Printed Kurti With Gota Work And Straight Palazzo Clothing Set</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Visit the superminis Store</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Girl Baby</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Superminis-Cotton-Printed-Straight-Palazzo/dp/B0C39L9TGX/ref=sr_1_88?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-88</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81xxRcQ6L3L._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Naixa Girls Red Anarkali Side Tassels work Kurta Set with V Nack 3/4 Sleeves Lace Work and Solid Green Golden Lace Dupatta</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Visit the Naixa Store</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Naixa-Anarkali-Tassels-Dupatta_13-Years-14/dp/B0F91HXVP8/ref=sr_1_89?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-89</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71jaflBu9AL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Naixa Girl's Rayon Blend Floral Pattern Anarkali Dress Payjama Dupatta Set with 3/4 Sleeve V- Neck and Drawstring Closure Type| Kurta Sharara Set for Girl's</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Visit the Naixa Store</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Naixa-Drawstring-Anarkali-Churidar-Off-White/dp/B0CW6HT4J2/ref=sr_1_90?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-90</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71X3GB0oZzL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Picksparrow Baby Girl Pattu pavadai/Lehenga Choli/Festive Indian wear (Cotton Silk)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Brand: Picksparrow</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Picksparrow-pavadai-Lehenga-Festive-Magenta/dp/B0FD43TPZ5/ref=sr_1_91?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-91</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81V5QMsFklL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girls Silk Blend Readymade Embroidered 3 Piece Lehenga Choli Set|Lehenga Choli,Ethnic Wear|Lehenga for Kids|Lehenga Set</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-FDGLGC00237-WHT-28_White_7-8/dp/B0FKTFXXGM/ref=sr_1_92?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-92</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71wGpkKKebL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Aarika Girls Ethnic Wear Cream Colour Sequins Zari Embroidery Georgette Kurti Sharara Set</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Visit the Aarika Store</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Aarika-Sequins-Embroidery-Georgette-Sharara/dp/B0D14SSLHQ/ref=sr_1_93?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-93</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61KK4c1eCRL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Delima Fashion Girls Reyon Readymade Lehenga Choli Set | Ethnic Wear Dress For Kids (2-8 Years)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Brand: Generic</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Delima-Fashion-Readymade-Lehenga-Ethnic/dp/B0DPDCP9Q8/ref=sr_1_94?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-94</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81mymIIUw5L._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Pspeaches Girls COORDINATED_OUTFIT</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Visit the Pspeaches Store</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Pspeaches-Ethnic-Printed-Pleated-White-8-10Y/dp/B0CG1CBGGL/ref=sr_1_95?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-95</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/31BBqf0b9yL._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girl's Cotton Blend Printed Salwar Suit Set|Kids Salwar Suit Set|Ethnic Wear for Kids|Suit for Girls|Sharara Set for Girls</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-Printed-FDGSET00492-36_Purple_11-12/dp/B0FP2PHRLT/ref=sr_1_96?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-96</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61h7YxMB44L._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Magenta Kids Lehenga with Mirror Work – Elegant Ethnic Wear for Festive Celebrations, Weddings, and Special Occasions</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Brand: Generic</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Magenta-Kids-Lehenga-Mirror-Work/dp/B0FMP6JRMF/ref=sr_1_97?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-97</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51oSsLOYVDL._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Pspeaches Girl's Cotton Readymade Lehenga Choli</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Visit the Pspeaches Girl's Blue Pink Cotton Readymade Lehenga Choli Set (Blue-10-12Y) Store</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Pspeaches-Cotton-Lehenga-L-OFFWHITEPINKBOOTI_Off-White_2-3Y/dp/B0CKW7FX2J/ref=sr_1_98?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-98</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61YuPsZnZ7L._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>GORLYA Girls Girl's Lehenga Choli</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Brand: GORLYA</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/GORLYA-Designer-Navratri-Dussehra-Weddings/dp/B0F8QB8Y69/ref=sr_1_99?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-99</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61BM7LupyPL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Angel f Studio Baby Girl Art Silk Readymade Lehenga Choli and Dupatta Set with Short Sleeves Zipper Closure Round Neck</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Visit the Angel f Studio Store</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Angel-Studio-Lehenga-Mustard_5-Finish/dp/B0D9KFHZQL/ref=sr_1_100?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-100</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81yDIkw7ltL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>superminis Cotton Blend Baby Girl's Jaipuri Print Frock Style Kurti With Frill Sleeves And Dhoti Style Salwar With Elastic Closure Ethnic Dress Clothing Set</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Visit the superminis Store</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Superminis-Jaipuri-Sleeves-Elastic-Closure/dp/B092SR17M1/ref=sr_1_101?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-101</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/8198xSwHpgS._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girl's Blooming Georgette Embroidered Salwar Suit Set|Ethnic Kurta Set For Girls|Kurti Sets|Kurta Set|Salwar Kurta Set|Kurti Set</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-FDGSET00129-LIM-32_Lime_9-10/dp/B0D92C5G2M/ref=sr_1_102?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-102</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71S0GFt0fZL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>A.T.U.N. (ALL THINGS UBER NICE) Girl's Polyester Embroiderey Sleeveless Kurta and Sharara Set | Traditional Ethnic Wear Clothing Set for Festival and Special Occasions</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Visit the A.T.U.N. (ALL THINGS UBER NICE) Store</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/T-U-N-ALL-THINGS-UBER-NICE/dp/B0BDVN762D/ref=sr_1_103?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-103</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61Gj8XNJKOL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Jwalin Girl's Embroidered Maxi Dress with Dupatta|Ethnic Dress for Girls</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Visit the Jwalin Store</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Jwalin-Embroidered-Anarkali-JWGDRS00167-White_11-12/dp/B0DR2GQQPB/ref=sr_1_104?dib=eyJ2IjoiMSJ9.SVd-KT1lnxFzhSGOEMBMWxc1oggweLhyKIP8C5R59QXX-w1oVp-Hq3AliQvNN_xdku8r9OOiWvLu3qnqdJ0omqgBs6bu7kaBo_VmNhiq0lis-2hDzZwI203aOW53hq8JrlFsZK7mlDConooo-52uZW_Ihdecw-LEXR3b8v9Fuu6uNZGfIwqNE7N--PiBNKLWV-LKet_4n8NFp5k3FgDJY72QF3B8aZ5WWpJ87AEpAI7tYTIKT42G8P4cSavh9K3BbdnjvN9X-iAQ744lTWCR_AURALB-O9-8tSG4e1xUKG0.hF5is217pKulNNTXMGcxM6eeIl6vsqZa5t456tbMmzQ&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071394&amp;sr=8-104</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71d3MGxKaDL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Jwalin Girl's Embroidered Maxi Dress with Dupatta|Ethnic Dress for Girls</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Visit the Jwalin Store</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Jwalin-Embroidered-Anarkali-JWGDRS00167-White_11-12/dp/B0DR2GQQPB/ref=sr_1_101?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-101</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71d3MGxKaDL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>TAGAS Girls Dress|Flower Print Frock for Girls|Girls Floral Party WearDress | Tulle Princess Frock with Bow|Girls Casual wear for Kids Dresses |</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Visit the TAGAS Store</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>baby-girls</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/TAGAS-Baby-Girls-Velentino-Knee-Length-KD-311-BLUE-3_Blue_3/dp/B0CHQRS22H/ref=sr_1_102?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-102</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71dgD+0+wML._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Girl's Ethnic Suit Kurta with Sharara Palazzo Pant - Stylish Traditional Clothing Set for Kids</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Brand: SHAHUDI DESIGNER</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/SHAHUDI-DESIGNER-Sleeveless-Sharara-Palazzo/dp/B0CM9JZFDN/ref=sr_1_103?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-103</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61voRN87o4L._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girls Tabby Silk Maxi Length Flared Embroidered Dress</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-Embroidered-FDGDRS00097-36_Purple_11-12Yrs/dp/B0CYX9LBJQ/ref=sr_1_104?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-104</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81GYr6m5-oL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Pspeaches Girls Off White Floral Yoke Design Empire Pure Cotton Kurti With Skirt With Dupatta (White)</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Visit the Pspeaches Store</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Pspeaches-Floral-Design-Dupatta-White-8-10Y/dp/B0CG1G9LJP/ref=sr_1_105?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-105</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/416ulQh77nL._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Naixa Girls Navy Blue Printed Organza Lehenga Choli Set | Ready to Wear Lehenga Choli Set | Lehenga Choli Set for Girls | Lehenga Choli Set for Kids (SE07)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Visit the Naixa Store</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Naixa-Printed-Organza-Lehenga-SE07_5-6/dp/B0DDHJ1XP9/ref=sr_1_106?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-106</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71cwffvKwvL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>superminis Girls Cotton Floral Printed Gota Patti Work Half Sleeves Sharara Suit</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Visit the superminis Store</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/superminis-Cotton-Printed-Sleeves-Sharara/dp/B0D9W6JV4T/ref=sr_1_107?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-107</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51RlazIWEEL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Pspeaches girls Dress</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Visit the Pspeaches Store</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Pspeaches-Yellow-Embroidered-Sharara-Dupatta/dp/B0DSBMV27Y/ref=sr_1_108?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-108</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51tzgnARzXL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girl's Silk Blend Ethnic Top and Palazzo Set |Kids Salwar Suit Set|Embroidered Suit for Girls|Ethnic Wear|Indo Western Set</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-Embroidered-FDGSET00235-40_Teal_13-14/dp/B0FB383TBQ/ref=sr_1_109?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-109</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71FYwa8ea3L._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol Girl's Rayon Ethnic Wear Embroidered Kurta Set with Net Dupatta</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Visit the Amazon Brand - Symbol Store</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Amazon-Brand-Embroidered-Organza-Dupatta/dp/B0DFWDDYYS/ref=sr_1_110?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-110</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81cDUClB9OL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>A.T.U.N. (ALL THINGS UBER NICE) Girl's Synthetic Skater Knee-Length Dress (GDRS CAM HPL_Hot Pink-Lime Green_9-10 YR)</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Visit the A.T.U.N. (ALL THINGS UBER NICE) Store</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/T-U-N-THINGS-UBER-NICE-GDRS/dp/B07PNV5XG3/ref=sr_1_111?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-111</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61gB8uWvOVL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Girls' Ethnic Kurta Sharara Set – Traditional Indian Outfit For Festive &amp; Special Occasions</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Visit the Little Zing Store</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Little-Zing-Girls-Ethnic-Sharara/dp/B0DST247K8/ref=sr_1_112?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-112</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/611P64QfWpL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Arshia Fashions Baby Girls Jaipuri Print Kurti with Frill Sleeves and Dhoti Style Salwar Ethnic Dress</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Visit the Arshia Fashions Store</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Arshia-Fashions-Jaipuri-Sleeves-Salwar/dp/B0CRL4QFJL/ref=sr_1_113?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-113</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81Y+E3FmxnL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Pspeaches girls Lehenga Choli</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Visit the Pspeaches Store</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Pspeaches-Printed-Lehenga-Dupatta-Yellow-5-6Y/dp/B0CFLYB3FF/ref=sr_1_114?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-114</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41-GmSK+ZfL._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Pspeaches Girls Kurta &amp; Palazzo</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Visit the Pspeaches Store</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Pspeaches-Girls-Cotton-Palazzo-KS-YELLOWOFFWHITE-8-10Y_Yellow/dp/B0CJBKZ3GZ/ref=sr_1_115?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-115</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61enUmXqoZL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Girls Stylish Jumpsuit Collection, Flutter Sleeve Wide Leg Pants, Ethnic Print, White and Red, Casual Wear</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Brand: PABROS</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Stylish-Jumpsuit-Collection-Flutter-Sleeve/dp/B0G3KMNFMP/ref=sr_1_116?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-116</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51fs8J8TEbL._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Stanwells Kids Girls Yellow &amp; Pink Combo Lehenga Choli Set | Flared Readymade Dress with Sequins Embroidery | Traditional South Indian Outfit</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Visit the Stanwells Kids Store</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Stanwells-Kids-Yellow-Magenta-Lehenga/dp/B089G52P22/ref=sr_1_121?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-121</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81W2PD1NBjL._SX466_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>White Button Girls Polyester Blend New Stone And Embroidery Work Half Saree Styled Kids Readymade Lehenga Choli</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Brand: White Button</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/White-Button-Embroidery-Years-Morpeach/dp/B0CWDWYPJ8/ref=sr_1_122?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-122</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/518umAaT9gL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Baby Girl's Readymade Lehenga Choli For Kids</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Visit the COMRATE Store</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/COMRATE-Girls-Ringani-Pavadai-Lehenga/dp/B0D5R6X6MP/ref=sr_1_123?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-123</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/91Y1EtRt5TL._SX679_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>BIBA Girls Viscose Readymade Flared Printed Lehenga Set</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Visit the BIBA Store</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/BIBA-Pink-Viscose-Short-Lehenga/dp/B0C3ZSK6J8/ref=sr_1_124?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-124</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71rXVKygsZL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Pspeaches Girls Dress</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Visit the Pspeaches Store</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Pspeaches-Magenta-Floral-Attached-Pink-4-6Y/dp/B0CG28R76V/ref=sr_1_125?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-125</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41oO+JZdEOL._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>FELIZ THE DESIGNER STUDIO Baby Girl's Traditional Readymade South Indian Pattu Pavadai Lehenga Choli For Kid's</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Visit the FELIZ THE DESIGNER STUDIO Store</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Designer-Traditional-Readymade-Ringani-6-12-Material/dp/B0DFC8BF55/ref=sr_1_126?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-126</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81fXGGGdXYL._SX679_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Picksparrow Baby Girl Pattu pavadai/Lehenga Choli/Traditional Ethnic Dress (Pink, Tissue Embroidered)</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Brand: Picksparrow</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Picksparrow-pavadai-Lehenga-Traditional-Embroidered/dp/B0DVYR7HFM/ref=sr_1_127?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-127</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81KDrI4FpoL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Aarika Girls Ethnic Wear Sea Green Colour Sequin Embroidery Georgette Lehenga Saree With Attachable Dupatta</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Visit the Aarika Store</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Aarika-Embroidery-Georgette-Attachable-SR-26037-YELLOW-22/dp/B0FK3M73G9/ref=sr_1_128?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-128</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51ydIvanKpL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Gorlya Girls Floral Lehenga Choli Set | Sleeveless Printed Crop Top &amp; Flared Skirt | Ethnic for Kids | Traditional Outfit for Weddings &amp; Celebrations</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Brand: GORLYA</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/GORLYA-Floral-Printed-Scalloped-Lehenga/dp/B0CYH865SM/ref=sr_1_129?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-129</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61KF2vLeGrL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girl's Chanderi Silk Embroidered Top and Palazzo Set|Kids Salwar Suit Set|Kids Ethnic Wear</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-Embroidered-FDGSET00352-40_Mauve_13-14/dp/B0FL23WPRF/ref=sr_1_130?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-130</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71UCHv0UUNL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girl's Silk Blend Ethnic Top and Palazzo Set |Kids Salwar Suit Set|Embroidered Suit for Girls|Indo Western Set</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-Printed-FDGSET00227-Green_13-14/dp/B0F9YWTKKV/ref=sr_1_131?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-131</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71UgOTb2w6L._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>A.T.U.N. All Things Uber Nice Girls' Skater Synthetic Mini Dress (GDRS JES LMG_Lime Green_5-6 Years)</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Visit the A.T.U.N. (ALL THINGS UBER NICE) Store</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/T-U-N-Things-Uber-Nice-GDRS/dp/B07HHTXYVY/ref=sr_1_132?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-132</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51ZdpjO8aPL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Pspeaches Girls Pink Orange Embellished Ready To Wear Lehenga Blouse With Dupatta (Pink)</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Visit the Pspeaches Store</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Pspeaches-Embellished-Lehenga-Dupatta-Pink-7-8Y/dp/B0CFM1ZZ4Q/ref=sr_1_133?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-133</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/413l6w1AfML._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Niren Enterprise Girls Bow Pearl Dress Puff Sleeve Round Neck Solid Cotton Frock</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Visit the Niren Enterprise Store</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Niren-Enterprise-Girls-Sleeve-Cotton/dp/B0G5GBC7HP/ref=sr_1_134?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-134</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/510kjASOrDL._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Aarika Girls Ethnic Wear Blue-Rani Colour Embroidery/Printed Gown</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Visit the Aarika Store</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Aarika-Green-Rani-Embroidery-Printed-G-MC-13021-GREEN-24/dp/B0F7Y29MJ7/ref=sr_1_135?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-135</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/717BghCmagL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>PW PLATYPUS WORLD New South Indian Traditional Pattu Pavadai Pattu Langa Lehenga Choli For Baby Girls Dress</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Visit the PW PLATYPUS WORLD Store</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/PW-PLATYPUS-WORLD-Traditional-Pavadai/dp/B0CYGTK9XK/ref=sr_1_136?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-136</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/91KwvmHTsIL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Naixa Girl's Rayon Floral Pattern Kurta Sharara Set with 3/4 Sleeve V- Neck Knee Length and Elastic Closure Type| Kurta Sharara Set for Girl's</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Visit the Naixa Store</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Naixa-Fabric-Floral-Printed-Sharara/dp/B0CW6KMD5T/ref=sr_1_137?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-137</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/711SUVdBcfL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>TAGAS Girls Girls Sleeveless Top and Sarara Printed Set with Dupatta | Traditional Girls Ethnic Wear|Ethnic Wear for girls| GIRLS DRESS</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Visit the TAGAS Store</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Sleeveless-Sarara-Printed-Dupatta-Traditional/dp/B0FK5LJ8QV/ref=sr_1_138?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-138</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61A8vHyTwWL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>A.T.U.N. (ALL THINGS UBER NICE) Zardozi Thread Work Embroidered 3 Piece Crinkled Lehenga Set with Dupatta and Padded Choli Top for Girls | Designer Festive Ethnic Wear Outfit</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Visit the A.T.U.N. (ALL THINGS UBER NICE) Store</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/T-U-N-ALL-THINGS-UBER-NICE/dp/B0FYD27KHT/ref=sr_1_139?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-139</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51gsCBHD4mL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Pspeaches girls Lehenga Choli</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Visit the Pspeaches Store</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Pspeaches-Printed-Sequinned-Lehenga-Green-3-4Y/dp/B0CFLRNPVT/ref=sr_1_140?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-140</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51VwYTd-rCL._SY500_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Picksparrow Newborn Baby Girl Silk Frock/Diwali Dress/Ethnicwear/Festive Indianwear(Silk -Cotton Brocade)</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Brand: Picksparrow</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Picksparrow-Cotton-Ethnicwear-Indianwear-Red-Yellow/dp/B0CJFZVT76/ref=sr_1_141?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-141</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81TblyGyHzL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>South Indian Traditional Pattu Pavadai Tapeta Silk Lehenga Choli</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Brand: Suzvan</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>baby-girls</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Suzvan-Traditional-Pattu-Pavadai-Frock/dp/B0BZV1WTWM/ref=sr_1_142?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-142</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/A1aS4oaHNZL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Kid Girl's Black White Floral Cotton Dress Set with Bottom</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Brand: Generic</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Girls-Black-Floral-Cotton-Bottom/dp/B0GGBW9JCR/ref=sr_1_143?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-143</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41km9B+73LL.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>A.T.U.N. (ALL THINGS UBER NICE) Zardozi Thread Work Embroidered 3 Piece Crinkled Lehenga Set with Dupatta and Padded Choli Top for Girls (Unstitched Sleeves Included) | Designer Festive Ethnic Wear</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Visit the A.T.U.N. (ALL THINGS UBER NICE) Store</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/T-U-N-ALL-THINGS-UBER-NICE/dp/B0FYD4JY61/ref=sr_1_144?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-144</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51ejvB8BErL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Jwalin Girls Embroidered Maxi Dress|Ethnic Dress</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Visit the Jwalin Store</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Jwalin-Embroidered-Birthday-JWGDRS00151-32_Black_9-10Yrs/dp/B0DJWD1DQ5/ref=sr_1_145?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-145</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/713BwfFgPFL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girl's Organza Readymade Tabby Lehenga Choli |Lehenga |Traditional Lehenga Choli</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-Organza-FDGLGC00154-36_Green_11-12Yrs/dp/B0DJCXDNJV/ref=sr_1_146?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-146</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81baRZ6oYCL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Picksparrow Baby Girl Pattu pavadai/Lehenga Choli/Traditional Ethnic Dress (Pink, TISSUE CHECKS)</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Brand: Picksparrow</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Picksparrow-pavadai-Lehenga-Traditional-Ethnic/dp/B0DZXBZ4K2/ref=sr_1_147?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-147</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81lrmBTeA8L._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Fashion Dream Girl's Chanderi Silk Ethnic Kurta and Sharara Set|Kids Salwar Suit Set|Sharara Set for Girls</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Visit the Fashion Dream Store</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Fashion-Dream-Embroidered-FDGSET00354-32_Maroon_9-10/dp/B0FNN7ZZ3V/ref=sr_1_148?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-148</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71z2XAbfCvL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Jwalin Girl's Silk Blend Foil Printed Kurta With Dhoti Pant Kids Top And pant Set|Kids Dhoti Set</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Visit the Jwalin Store</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Jwalin-Sharara-JWGSET00028-40_Pink_13-Years-14/dp/B0BFRKDQR1/ref=sr_1_149?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-149</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71DpIQWIhQL._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>superminis Girls Cotton Floral Printed Angrakha Gotta Patti Kurti Pant Set with Net Dupatta</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Visit the superminis Store</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Baby Girls</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/superminis-Cotton-Printed-Angrakha-Dupatta/dp/B0DRV8NGVR/ref=sr_1_150?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-150</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51NVe7HyfbL._SX522_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>AJ DEZINES Kids Cotton Sleeveless Kurta Sharara Set for Girls - Festival Traditional Ethnic Wear - Floral Printed Pattern, Regular Fit</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Visit the AJ DEZINES Store</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/AJ-DEZINES-Cotton-Sleeveless-Sharara/dp/B0F7XK2J9J/ref=sr_1_151?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-151</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61kjzIcrp6L._SY550_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Aarika Girls Ethnic Wear Yellow Colour Abstract Print Polycrepe Kurti Patiala Set</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Visit the Aarika Store</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Aarika-Abstract-Polycrepe-Set-3-13-PT-SHM-5013/dp/B0DXQ3H9WV/ref=sr_1_152?dib=eyJ2IjoiMSJ9.44uqcHVaxdjvkVxqGqJNl_U3WtKXmrvzaNP7Yd0R78MRftL6gJbslVEr9f-YhTx0T-d76Z5g2vnqCtHeyuFRoGjrntlHAmqRMzsFx7gblJW3XO33WRZo73zykRURzqCQroI76MmfQ-Vd3qyGqsrU45a8TWDqCBQwTPhfOkr5O3bHSsv_j6VkKXr3-Fh-TEiCt6YAIgOGqbIpRthQqPBbNL8S1NwREXxS9VSGI38z_lz2m5Uh6r4KYVpBnEraAij-H2VthdgZC0difvfyHaT48s7JnPioIOXtGreMxLI3n14.8UrM6MKAwX1uf-649dHGg0jPgISCAGNZGeNoZ4w-fKc&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771071926&amp;sr=8-152</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61hr3iUCxKL._SY550_.jpg</t>
         </is>
       </c>
     </row>

--- a/amazon_kids_clothes.xlsx
+++ b/amazon_kids_clothes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,85 +451,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Length</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Fabric Type</t>
+          <t>Sleeve type</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Material Type</t>
+          <t>Neck style</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Closure type</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Care instructions</t>
+          <t>Material type</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Age range description</t>
+          <t>Material composition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Fit type</t>
+          <t>Occasion</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sleeve type</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Neck style</t>
+          <t>Department</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Pattern</t>
+          <t>Product URL</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Theme</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Length</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Bottom Style</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Country of Origin</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Product URL</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Image URL</t>
         </is>
@@ -543,15 +513,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Naixa</t>
+          <t>Visit the Naixa Store</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Girls</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -560,22 +526,12 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>https://www.amazon.in/Naixa-Fabric-Floral-Printed-Sharara/dp/B0CW9JVHN6/ref=sr_1_5?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9H4mdcHU7eGQTYCNKMA5n0G9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UNrLnTgRQ7dqEEwrSv2oKeem2h3uMyTsrGAWQtahwQ6gtl9a3204cj6mVxjwzvSIrQ5DJgE8Ts3bbnyrdQCeZLgEfsQizCOM8vVeN111ie3wR3P_xzMY71en669E5fdy4rr4KXpTKNeyJPA-g_rQwa9Fyd6RUkBzT5gV-0ktx6fi9n-3LJNyOQwV7VWVjEllXlw0vPowGSj39lYt6z4vEK8.aKEZH1efaVaVf87RlArggd4qmeHqZ4aBxrM7kHAPjB8&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771073327&amp;sr=8-5</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Naixa-Fabric-Floral-Printed-Sharara/dp/B0CW9JVHN6/ref=sr_1_5?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9PE42dWa17UO_uBRFwXWrKLFQtbCu4O0St2V_BYW1D7ZDdxigw7uekjX6yQnHz6NVRnpdOt2Npxm-HUmg06PY_ygH02K80IFlYzb1Qh3vNwOPS99H1Ad288rlOEDffdSDCRpbuljT7eMd2Qs6J4ICRZHkHYtw1HVgD2bO5GqK__P1LsOPhwdlvUuOPSuY8cOcBpozSEOohHWx5GOE9kkQr_ADB_3B0Y3908c4ReXBTWwenInb9zlT_FzHIEUNd7z5S5GAfTZuj7NCUVM3O9wWko.ZlNbXGNJ0xvDik0rgTq9Gj4ZRXEo3RXj6lcHoZMkc5A&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771075593&amp;sr=8-5</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>https://m.media-amazon.com/images/I/71-Tkj+7XrL._SY550_.jpg</t>
         </is>
@@ -593,11 +549,7 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Girls</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -606,44 +558,30 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>https://www.amazon.in/MITUKART-Printed-Sharara-Dupatta-traditional/dp/B0GG4WM5LN/ref=sr_1_6?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9H4mdcHU7eGQTYCNKMA5n0G9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UNrLnTgRQ7dqEEwrSv2oKeem2h3uMyTsrGAWQtahwQ6gtl9a3204cj6mVxjwzvSIrQ5DJgE8Ts3bbnyrdQCeZLgEfsQizCOM8vVeN111ie3wR3P_xzMY71en669E5fdy4rr4KXpTKNeyJPA-g_rQwa9Fyd6RUkBzT5gV-0ktx6fi9n-3LJNyOQwV7VWVjEllXlw0vPowGSj39lYt6z4vEK8.aKEZH1efaVaVf87RlArggd4qmeHqZ4aBxrM7kHAPjB8&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771073327&amp;sr=8-6</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/41ENa2JAKWL._SY500_.jpg</t>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/MITUKART-Printed-Sharara-Dupatta-traditional/dp/B0GG4WM5LN/ref=sr_1_6?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9PE42dWa17UO_uBRFwXWrKLFQtbCu4O0St2V_BYW1D7ZDdxigw7uekjX6yQnHz6NVRnpdOt2Npxm-HUmg06PY_ygH02K80IFlYzb1Qh3vNwOPS99H1Ad288rlOEDffdSDCRpbuljT7eMd2Qs6J4ICRZHkHYtw1HVgD2bO5GqK__P1LsOPhwdlvUuOPSuY8cOcBpozSEOohHWx5GOE9kkQr_ADB_3B0Y3908c4ReXBTWwenInb9zlT_FzHIEUNd7z5S5GAfTZuj7NCUVM3O9wWko.ZlNbXGNJ0xvDik0rgTq9Gj4ZRXEo3RXj6lcHoZMkc5A&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771075593&amp;sr=8-6</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41ENa2JAKWL.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>New Badshah Dressesn Ethnic Kids Girls Kurta Straight Pant with Silky Dupatta Dress Set, Cotton Rayon Fabric</t>
+          <t>White Button new lemon sequence work with floral print jacket style indowestern palazzo set for girls</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brand: Generic</t>
+          <t>Brand: White Button</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Girls</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -652,24 +590,14 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>https://www.amazon.in/Badshah-Dressesn-Straight-Dupatta-Suitable/dp/B0CZ7GQP7B/ref=sr_1_7?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9H4mdcHU7eGQTYCNKMA5n0G9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UNrLnTgRQ7dqEEwrSv2oKeem2h3uMyTsrGAWQtahwQ6gtl9a3204cj6mVxjwzvSIrQ5DJgE8Ts3bbnyrdQCeZLgEfsQizCOM8vVeN111ie3wR3P_xzMY71en669E5fdy4rr4KXpTKNeyJPA-g_rQwa9Fyd6RUkBzT5gV-0ktx6fi9n-3LJNyOQwV7VWVjEllXlw0vPowGSj39lYt6z4vEK8.aKEZH1efaVaVf87RlArggd4qmeHqZ4aBxrM7kHAPjB8&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771073327&amp;sr=8-7</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/416Hih0ryfL._SY500_.jpg</t>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/White-Button-jacket-indowestern-Years/dp/B0D7S5Q67Z/ref=sr_1_7?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9PE42dWa17UO_uBRFwXWrKLFQtbCu4O0St2V_BYW1D7ZDdxigw7uekjX6yQnHz6NVRnpdOt2Npxm-HUmg06PY_ygH02K80IFlYzb1Qh3vNwOPS99H1Ad288rlOEDffdSDCRpbuljT7eMd2Qs6J4ICRZHkHYtw1HVgD2bO5GqK__P1LsOPhwdlvUuOPSuY8cOcBpozSEOohHWx5GOE9kkQr_ADB_3B0Y3908c4ReXBTWwenInb9zlT_FzHIEUNd7z5S5GAfTZuj7NCUVM3O9wWko.ZlNbXGNJ0xvDik0rgTq9Gj4ZRXEo3RXj6lcHoZMkc5A&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771075593&amp;sr=8-7</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61eUatCO4xL._SY741_.jpg</t>
         </is>
       </c>
     </row>
@@ -681,15 +609,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stanwells Kids</t>
+          <t>Visit the Stanwells Kids Store</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Baby Girls</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -698,24 +622,14 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>https://aax-eu-zaz.amazon.in/x/c/JL9HC3D6V3dpRLCi_DPamPsAAAGcXDJUKQoAAAH2AQBvbm9fdHhuX2JpZDIgICBvbm9fdHhuX2ltcDIgICBQPVfz/clv1c_ek-wBIHXErbWDn2nI5drJ16WdB1VqvTFhXbcR6HmlwlkKOxUOwXlHmrF61uFQUd4qZ46qq4L0-gx-coC9S6cE6WaaVZpRDLtTVg5Hgm54PC6u1eoryXYNs1icph2pFRFzwiklblAYBg2l4E2cJeS-Vo9QJyZgj0qk8dywiKW0OYv2OkYBcYMUF6hCuaP3Zr-NaTGv1t2MRnurdwtVnph82FQjzpqBV-118tipbddY_Gmf0NHgKRQ8wcxmRxCF35KoKPr5uWxoZIHKgK1JqilNqcWZb5TYSGAJbRIDlivW0njAUTvXLY-CyX9snniytU5RVFYNZPiRvwV79-CSLxDLIFgizgknYx2yZ_5B8Fd8tQWFaeqTq2wHZ2kCwBHzkjkCll9YGKCWYXKpFGJbbRv6J-Dwk4Dk8_lbKht4XZefdEGNiTr70YJEjiE5vuF1mqGetQ1rbRqA9_vgpqXjgkhhsgOBwK3bL20sB8CFqW2SiIGQ9UBHoWztprXhv-79J2qbm78jaCbqF3mLiUTyueUQkDup1l_R_hLbWgdetFljo9z1ce9DVW3ACNPBSXt1SL160bmd2LnMe5K7ZBK3rWhX0I3RdQus4b41tzhTY0nM60A5ztkz9MYJn0UjMQANuRnHH40VJLlOQqSK4MBvB44TDvG-eUK25lxdWFSTwil-ZhWQ6NmiNDnMSkvhU65X4gW0MHbpcmetvn9QFo7OP7OowhQ8cJcNdcLbRw7IQPxsc2rtLph6yuf8Gyo2iQwQxtW3o4oHNaMS2wprzzUwcExOptIVCkS5bYfgkhqZ1zT3qdDJerKh2j3T-Lp1EigADC_UBwRbIrTNv9NSVo9XzjMH-pK4nCwdp8y_GbTaTN-2xGCakET_c-lX_23MFbrnIAc78-aMXyNQ7eCWPWJvhuygo_vLE76Cswn6MsD-QaYseisjJXU0oI4Ndg_bCldxUvQr9bwOB0Mt-TLrcWqK26rpiNSi-8nYcuxwl7AkAR70bX_NqmwojKCrWKVX98D1SF3CoAQLH1HgRfdlB1QURTsdXe32TQPDLSkxuK0yFg0UrMi_tD3KGJ1BnBcT7atyfa-0HoijKvmxmvO3Zl_yLesmWTwp0JtXPh-515YCEIghSuw0flK4cA__sWYKcWR_DMHGJiifaH_LJ3vwMA92hhsaI58DHUiKlhtjayOb_mfshJplWkJKBjomczWDZG_uDOzkkO-OEY2zXWs6OtC5ktgyN6CzgVnGdJITKGS2_teldqeVgsVLLDT88-si3c_fKsL5YAEEQ77JiTzOBc3wo2Q5F7ghvtT1jY_tnsuvWqJV2tkQml8G4Zc108wjcQoTdc1M2HF9iQF8_iWm_K8Wq3Kji1-OMZN56syQeddFeOjgk6pWDqhUZ0P0eHH8FyRsEPFge4ZBhycINAMWe27UeghzuPh-iUilxdNn1wqC1Qe2XKYjNGxCT-VQ2nBH3QPx0rtXSAnhJIf3pwtfAeiANDMHd4nFJaBWNWVBTT6DCrYTYkvjFYugNYlnx2peXv2WTcqMx7Uaavk_pPZ0xNZsv8TzUF7LgvngnMwd3OPYZIMxeo7pxwirrtEZlMU0Pli3RH9ymx_4HmrFWRYr6snhMZ--YnWRWeydDTkP8dWXM9IQIOJXMFbhIQuN2BFIt0R_IqNkZmvvFYSkiU4n_9sipGOUfY/https://www.amazon.in/Stanwells-Kids-Readymade-Lehenga-AM031-O18_Orange_2-3/dp/B08QFV8YJ6/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.7f127af2-01e9-4e9a-857b-f7f598682cc6%3Aamzn1.sym.7f127af2-01e9-4e9a-857b-f7f598682cc6&amp;cv_ct_cx=ethnic+dresses+for+kids+girls&amp;keywords=ethnic+dresses+for+kids+girls&amp;pd_rd_i=B08QFV8YJ6&amp;pd_rd_r=21cb5b40-9334-4f04-b1a6-1a0426cc3fe4&amp;pd_rd_w=SHeMI&amp;pd_rd_wg=avT5g&amp;pf_rd_p=7f127af2-01e9-4e9a-857b-f7f598682cc6&amp;pf_rd_r=5FE54HW6B8HNHVMSV2VV&amp;qid=1771073327&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=1-1-9131241a-a358-4619-a7b8-0f5a65d91d81</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/511xRUjtCoL._SY550_.jpg</t>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://aax-eu-zaz.amazon.in/x/c/JAiqOMyx7ts0j5chopF6SYgAAAGcXFTmnQoAAAH2AQBvbm9fdHhuX2JpZDIgICBvbm9fdHhuX2ltcDIgICAnge93/clv1c_ek-wBHfWVcba3TK2Z8p873dcuEsGb28JAhqscZJ3NYF-EH6gwOP-pVkV9T817Gnuj8OutQEqzkKZKXQt3zZpL4T119fSJs0AnRl3nDYH_dSqKtGv9bvWYeQo4_hpjMZlw-6OLceu5Wrp4lx4AU_me9XCnD0cl19UEcj-2WdCjESfUMabWqBd6nj8VTmsshN1LI41_KOrf0ZNCKT8rc7lOcCZIXWVjmmO_ATNAEDnBvmiD_A90cn24qg2x0NjA8vNHx0Clp0w8qxjlCjlM_NDPjEEMj1zkDziWkKsNR8ZyCK5kIz7VI88HdY7VV0CHhaZTJiowTFgqelNJYc4DituafFQj3INO_EuS4ynNhRjIJeNHuq5oxSLNsWU8hiZHCqCkxSf9BjqpKOuvqnGT28-sxnuVxhZouTMYuCCt2XjGiUvLvWaxbnIJvk7ORHHVMxM4jgqadp4sdG-lUMLH4JA8wYz_9UipxWKKXEPbrUNijsuSajsjX332-1a6n213rfXa_fSp5l2-FBQgjNn-5josbTaeQi38mA4R-v0gISM64IKVds3m3jGtCkksgFNsDjrls3aGKfQXbQxDMKfp9kIwVWijjgc8wMAt2AF6FRX9f2FtItC16-3DWh7NyRRms26gQpfK5eJ5F74V3QDlCpPZIuYWPhuiSf4S0L8YGgCmeYsujxjwlpm6ptybUcVQBGgUbfaVESevLwx9-CQXTSaPDze6Vewi3J5aWlYdndQZX7hlZ5RLXaHqpnmqrd9C73s_4tG-yUt0-TrBoBLAhp3WIdbmBYWNLPgRVU7lIFV6gDAdrCTwLfbYaLyvjDaqQb2dygC1Fzm56vSbsH2RlVpL-l4OQFdtPoT4DY89dEmKGs-N0aksHNRIG4JvyRxrUvdvOlHqWDmQsPi7TkKUK554tmWAPiJYFoykmDVV39N6lGQRj7ntjPe9KxXy0rffC2TQ3mWKnAGoob3t9Er-8-UqzC-_hvF_NPHoaLV1EcVTOzjpquSorHgpwLYBgv2OSFl994QzvWz89LjFPxwURCcXIFwjMMO8wx69upPfdCoNcaznv9ZhojogGYSdR7MLczuMfblz6qoxpBjszfGLsKPVmlXrC9VGhxw_mad9N6hsJZap59uyHTlgX1WGPwXrQ5AQH9XkMcOra3-Z3RxRiMIljm3fEvGxeIMGg0qsBKhW5B5H5F4HutGh6vtJk595ONmY_76An3p3raVUV194vJFNfbHR7tZK-l0aj4kcuRosWwql7ePYLjOpcEdX0vlE4NJwsliid7shNYoiDC8uS5gfI2Wymtvy3VuVizY4aDeosOa-ue62lAM1FYqsdf84QvNV-qrJ8GSvoS3n3g7wPvVjABMIsloVKDRUifYV0FjdTGzKsgS2p0jrRI3sFyVsu6bvOoZZ6B2MGeghBzIgihfiMuQ1ugRORDOp2MW5XTOgeXZh0MUEcu3BfmogQFdxWIxxUbnT9VZ6JXW-Bsa5LzYDUA60hMK09EGJpGoNat5aL0TBWF7U8Y0nf1Jy57M6nQnYo0BBo3ZLElljDdeYW3wXj_SDvB1YL1dP5apXH4nBymdyoJ-6r5_5iH07ZnmqV9r6dQPou1eQRLxPqWUoCGv3_5xuOufB1vTkFFLB9eBCNrx_Md31kwep0LHOfwxmxONsBmGYccJfug-5VNuiALIi0o/https://www.amazon.in/Stanwells-Kids-Readymade-Lehenga-AM031-O18_Orange_2-3/dp/B08QFV8YJ6/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.7f127af2-01e9-4e9a-857b-f7f598682cc6%3Aamzn1.sym.7f127af2-01e9-4e9a-857b-f7f598682cc6&amp;cv_ct_cx=ethnic+dresses+for+kids+girls&amp;keywords=ethnic+dresses+for+kids+girls&amp;pd_rd_i=B08QFV8YJ6&amp;pd_rd_r=1abc3985-e2c6-4ed3-8328-d0f246c1e075&amp;pd_rd_w=NBhCc&amp;pd_rd_wg=7cj4k&amp;pf_rd_p=7f127af2-01e9-4e9a-857b-f7f598682cc6&amp;pf_rd_r=D3EFP52D4CPMQRGYGWZN&amp;qid=1771075593&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=1-1-9131241a-a358-4619-a7b8-0f5a65d91d81</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/511xRUjtCoL._SY741_.jpg</t>
         </is>
       </c>
     </row>
@@ -727,15 +641,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stanwells Kids</t>
+          <t>Visit the Stanwells Kids Store</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Baby Girls</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -744,44 +654,30 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>https://aax-eu-zaz.amazon.in/x/c/JL9HC3D6V3dpRLCi_DPamPsAAAGcXDJUKQoAAAH2AQBvbm9fdHhuX2JpZDIgICBvbm9fdHhuX2ltcDIgICBQPVfz/clv1c_ek-wBIHXErbWDn2nI5drJ16WdB1VqvTFhXbcR6HmlwlkKOxUOwXlHmrF61uFQUd4qZ46qq4L0-gx-coC9S6cE6WaaVZpRDLtTVg5Hgm54PC6u1eoryXYNs1icph2pFRFzwiklblAYBg2l4E2cJeS-Vo9QJyZgj0qk8dywiKW0OYv2OkYBcYMUF6hCuaP3Zr-NaTGv1t2MRnurdwtVnph82FQjzpqBV-118tipbddY_Gmf0NHgKRQ8wcxmRxCF35KoKPr5uWxoZIHKgK1JqilNqcWZb5TYSGAJbRIDlivW0njAUTvXLY-CyX9snniytU5RVFYNZPiRvwV79-CSLxDLIFgizgknYx2yZ_5B8Fd8tQWFaeqTq2wHZ2kCwBHzkjkCll9YGKCWYXKpFGJbbRv6J-Dwk4Dk8_lbKht4XZefdEGNiTr70YJEjiE5vuF1mqGetQ1rbRqA9_vgpqXjgkhhsgOBwK3bL20sB8CFqW2SiIGQ9UBHoWztprXhv-79J2qbm78jaCbqF3mLiUTyueUQkDup1l_R_hLbWgdetFljo9z1ce9DVW3ACNPBSXt1SL160bmd2LnMe5K7ZBK3rWhX0I3RdQus4b41tzhTY0nM60A5ztkz9MYJn0UjMQANuRnHH40VJLlOQqSK4MBvB44TDvG-eUK25lxdWFSTwil-ZhWQ6NmiNDnMSkvhU65X4gW0MHbpcmetvn9QFo7OP7OowhQ8cJcNdcLbRw7IQPxsc2rtLph6yuf8Gyo2iQwQxtW3o4oHNaMS2wprzzUwcExOptIVCkS5bYfgkhqZ1zT3qdDJerKh2j3T-Lp1EigADC_UBwRbIrTNv9NSVo9XzjMH-pK4nCwdp8y_GbTaTN-2xGCakET_c-lX_23MFbrnIAc78-aMXyNQ7eCWPWJvhuygo_vLE76Cswn6MsD-QaYseisjJXU0oI4Ndg_bCldxUvQr9bwOB0Mt-TLrcWqK26rpiNSi-8nYcuxwl7AkAR70bX_NqmwojKCrWKVX98D1SF3CoAQLH1HgRfdlB1QURTsdXe32TQPDLSkxuK0yFg0UrMi_tD3KGJ1BnBcT7atyfa-0HoijKvmxmvO3Zl_yLesmWTwp0JtXPh-515YCEIghSuw0flK4cA__sWYKcWR_DMHGJiifaH_LJ3vwMA92hhsaI58DHUiKlhtjayOb_mfshJplWkJKBjomczWDZG_uDOzkkO-OEY2zXWs6OtC5ktgyN6CzgVnGdJITKGS2_teldqeVgsVLLDT88-si3c_fKsL5YAEEQ77JiTzOBc3wo2Q5F7ghvtT1jY_tnsuvWqJV2tkQml8G4Zc108wjcQoTdc1M2HF9iQF8_iWm_K8Wq3Kji1-OMZN56syQeddFeOjgk6pWDqhUZ0P0eHH8FyRsEPFge4ZBhycINAMWe27UeghzuPh-iUilxdNn1wqC1Qe2XKYjNGxCT-VQ2nBH3QPx0rtXSAnhJIf3pwtfAeiANDMHd4nFJaBWNWVBTT6DCrYTYkvjFYugNYlnx2peXv2WTcqMx7Uaavk_pPZ0xNZsv8TzUF7LgvngnMwd3OPYZIMxeo7pxwirrtEZlMU0Pli3RH9ymx_4HmrFWRYr6snhMZ--YnWRWeydDTkP8dWXM9IQIOJXMFbhIQuN2BFIt0R_IqNkZmvvFYSkiU4n_9sipGOUfY/https://www.amazon.in/Stanwells-Kids-Readymade-Lehenga-AM031-O18_Orange_2-3/dp/B08QFV8YJ6/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.7f127af2-01e9-4e9a-857b-f7f598682cc6%3Aamzn1.sym.7f127af2-01e9-4e9a-857b-f7f598682cc6&amp;cv_ct_cx=ethnic+dresses+for+kids+girls&amp;keywords=ethnic+dresses+for+kids+girls&amp;pd_rd_i=B08QFV8YJ6&amp;pd_rd_r=21cb5b40-9334-4f04-b1a6-1a0426cc3fe4&amp;pd_rd_w=SHeMI&amp;pd_rd_wg=avT5g&amp;pf_rd_p=7f127af2-01e9-4e9a-857b-f7f598682cc6&amp;pf_rd_r=5FE54HW6B8HNHVMSV2VV&amp;qid=1771073327&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=1-1-9131241a-a358-4619-a7b8-0f5a65d91d81</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/511xRUjtCoL._SY550_.jpg</t>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://aax-eu-zaz.amazon.in/x/c/JAiqOMyx7ts0j5chopF6SYgAAAGcXFTmnQoAAAH2AQBvbm9fdHhuX2JpZDIgICBvbm9fdHhuX2ltcDIgICAnge93/clv1c_ek-wBHfWVcba3TK2Z8p873dcuEsGb28JAhqscZJ3NYF-EH6gwOP-pVkV9T817Gnuj8OutQEqzkKZKXQt3zZpL4T119fSJs0AnRl3nDYH_dSqKtGv9bvWYeQo4_hpjMZlw-6OLceu5Wrp4lx4AU_me9XCnD0cl19UEcj-2WdCjESfUMabWqBd6nj8VTmsshN1LI41_KOrf0ZNCKT8rc7lOcCZIXWVjmmO_ATNAEDnBvmiD_A90cn24qg2x0NjA8vNHx0Clp0w8qxjlCjlM_NDPjEEMj1zkDziWkKsNR8ZyCK5kIz7VI88HdY7VV0CHhaZTJiowTFgqelNJYc4DituafFQj3INO_EuS4ynNhRjIJeNHuq5oxSLNsWU8hiZHCqCkxSf9BjqpKOuvqnGT28-sxnuVxhZouTMYuCCt2XjGiUvLvWaxbnIJvk7ORHHVMxM4jgqadp4sdG-lUMLH4JA8wYz_9UipxWKKXEPbrUNijsuSajsjX332-1a6n213rfXa_fSp5l2-FBQgjNn-5josbTaeQi38mA4R-v0gISM64IKVds3m3jGtCkksgFNsDjrls3aGKfQXbQxDMKfp9kIwVWijjgc8wMAt2AF6FRX9f2FtItC16-3DWh7NyRRms26gQpfK5eJ5F74V3QDlCpPZIuYWPhuiSf4S0L8YGgCmeYsujxjwlpm6ptybUcVQBGgUbfaVESevLwx9-CQXTSaPDze6Vewi3J5aWlYdndQZX7hlZ5RLXaHqpnmqrd9C73s_4tG-yUt0-TrBoBLAhp3WIdbmBYWNLPgRVU7lIFV6gDAdrCTwLfbYaLyvjDaqQb2dygC1Fzm56vSbsH2RlVpL-l4OQFdtPoT4DY89dEmKGs-N0aksHNRIG4JvyRxrUvdvOlHqWDmQsPi7TkKUK554tmWAPiJYFoykmDVV39N6lGQRj7ntjPe9KxXy0rffC2TQ3mWKnAGoob3t9Er-8-UqzC-_hvF_NPHoaLV1EcVTOzjpquSorHgpwLYBgv2OSFl994QzvWz89LjFPxwURCcXIFwjMMO8wx69upPfdCoNcaznv9ZhojogGYSdR7MLczuMfblz6qoxpBjszfGLsKPVmlXrC9VGhxw_mad9N6hsJZap59uyHTlgX1WGPwXrQ5AQH9XkMcOra3-Z3RxRiMIljm3fEvGxeIMGg0qsBKhW5B5H5F4HutGh6vtJk595ONmY_76An3p3raVUV194vJFNfbHR7tZK-l0aj4kcuRosWwql7ePYLjOpcEdX0vlE4NJwsliid7shNYoiDC8uS5gfI2Wymtvy3VuVizY4aDeosOa-ue62lAM1FYqsdf84QvNV-qrJ8GSvoS3n3g7wPvVjABMIsloVKDRUifYV0FjdTGzKsgS2p0jrRI3sFyVsu6bvOoZZ6B2MGeghBzIgihfiMuQ1ugRORDOp2MW5XTOgeXZh0MUEcu3BfmogQFdxWIxxUbnT9VZ6JXW-Bsa5LzYDUA60hMK09EGJpGoNat5aL0TBWF7U8Y0nf1Jy57M6nQnYo0BBo3ZLElljDdeYW3wXj_SDvB1YL1dP5apXH4nBymdyoJ-6r5_5iH07ZnmqV9r6dQPou1eQRLxPqWUoCGv3_5xuOufB1vTkFFLB9eBCNrx_Md31kwep0LHOfwxmxONsBmGYccJfug-5VNuiALIi0o/https://www.amazon.in/Stanwells-Kids-Readymade-Lehenga-AM031-O18_Orange_2-3/dp/B08QFV8YJ6/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.7f127af2-01e9-4e9a-857b-f7f598682cc6%3Aamzn1.sym.7f127af2-01e9-4e9a-857b-f7f598682cc6&amp;cv_ct_cx=ethnic+dresses+for+kids+girls&amp;keywords=ethnic+dresses+for+kids+girls&amp;pd_rd_i=B08QFV8YJ6&amp;pd_rd_r=1abc3985-e2c6-4ed3-8328-d0f246c1e075&amp;pd_rd_w=NBhCc&amp;pd_rd_wg=7cj4k&amp;pf_rd_p=7f127af2-01e9-4e9a-857b-f7f598682cc6&amp;pf_rd_r=D3EFP52D4CPMQRGYGWZN&amp;qid=1771075593&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=1-1-9131241a-a358-4619-a7b8-0f5a65d91d81</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/511xRUjtCoL._SY741_.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Georgette Embroidery Sequin Kurta, Skirt and Dupatta Set for Girls – Ethnic Party Dress I Birthday Trendy Classic Outfit I Square Neck Sleeveless</t>
+          <t>New Badshah Dressesn Ethnic Kids Girls Kurta Straight Pant with Silky Dupatta Dress Set, Cotton Rayon Fabric</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPAMitude</t>
+          <t>Brand: Generic</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Girls</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -790,44 +686,30 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>https://www.amazon.in/SPAMitude-Georgette-Embroidery-Birthday-Sleeveless/dp/B0G2CHRSPL/ref=sr_1_8?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9H4mdcHU7eGQTYCNKMA5n0G9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UNrLnTgRQ7dqEEwrSv2oKeem2h3uMyTsrGAWQtahwQ6gtl9a3204cj6mVxjwzvSIrQ5DJgE8Ts3bbnyrdQCeZLgEfsQizCOM8vVeN111ie3wR3P_xzMY71en669E5fdy4rr4KXpTKNeyJPA-g_rQwa9Fyd6RUkBzT5gV-0ktx6fi9n-3LJNyOQwV7VWVjEllXlw0vPowGSj39lYt6z4vEK8.aKEZH1efaVaVf87RlArggd4qmeHqZ4aBxrM7kHAPjB8&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771073327&amp;sr=8-8</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/41CPBKeL-vL._SY500_.jpg</t>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Badshah-Dressesn-Straight-Dupatta-Suitable/dp/B0CZ7GQP7B/ref=sr_1_8?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9PE42dWa17UO_uBRFwXWrKLFQtbCu4O0St2V_BYW1D7ZDdxigw7uekjX6yQnHz6NVRnpdOt2Npxm-HUmg06PY_ygH02K80IFlYzb1Qh3vNwOPS99H1Ad288rlOEDffdSDCRpbuljT7eMd2Qs6J4ICRZHkHYtw1HVgD2bO5GqK__P1LsOPhwdlvUuOPSuY8cOcBpozSEOohHWx5GOE9kkQr_ADB_3B0Y3908c4ReXBTWwenInb9zlT_FzHIEUNd7z5S5GAfTZuj7NCUVM3O9wWko.ZlNbXGNJ0xvDik0rgTq9Gj4ZRXEo3RXj6lcHoZMkc5A&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771075593&amp;sr=8-8</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/416Hih0ryfL.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FELIZ THE DESIGNER STUDIO Girls Readymade Lehenga Choli Set</t>
+          <t>Georgette Embroidery Sequin Kurta, Skirt and Dupatta Set for Girls – Ethnic Party Dress I Birthday Trendy Classic Outfit I Square Neck Sleeveless</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FELIZ THE DESIGNER STUDIO</t>
+          <t>Visit the SPAMitude Store</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Baby Girls</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -836,44 +718,30 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>https://www.amazon.in/Designer-Studio-Readymade-Lehenga-Material/dp/B0DDH5G43Y/ref=sr_1_9?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9H4mdcHU7eGQTYCNKMA5n0G9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UNrLnTgRQ7dqEEwrSv2oKeem2h3uMyTsrGAWQtahwQ6gtl9a3204cj6mVxjwzvSIrQ5DJgE8Ts3bbnyrdQCeZLgEfsQizCOM8vVeN111ie3wR3P_xzMY71en669E5fdy4rr4KXpTKNeyJPA-g_rQwa9Fyd6RUkBzT5gV-0ktx6fi9n-3LJNyOQwV7VWVjEllXlw0vPowGSj39lYt6z4vEK8.aKEZH1efaVaVf87RlArggd4qmeHqZ4aBxrM7kHAPjB8&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771073327&amp;sr=8-9</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/81raHdjMYhL._SX679_.jpg</t>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/SPAMitude-Georgette-Embroidery-Birthday-Sleeveless/dp/B0G2CHRSPL/ref=sr_1_9?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9PE42dWa17UO_uBRFwXWrKLFQtbCu4O0St2V_BYW1D7ZDdxigw7uekjX6yQnHz6NVRnpdOt2Npxm-HUmg06PY_ygH02K80IFlYzb1Qh3vNwOPS99H1Ad288rlOEDffdSDCRpbuljT7eMd2Qs6J4ICRZHkHYtw1HVgD2bO5GqK__P1LsOPhwdlvUuOPSuY8cOcBpozSEOohHWx5GOE9kkQr_ADB_3B0Y3908c4ReXBTWwenInb9zlT_FzHIEUNd7z5S5GAfTZuj7NCUVM3O9wWko.ZlNbXGNJ0xvDik0rgTq9Gj4ZRXEo3RXj6lcHoZMkc5A&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771075593&amp;sr=8-9</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41CPBKeL-vL._SY679_.jpg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Angel f Studio Girls Palazzo Set</t>
+          <t>FELIZ THE DESIGNER STUDIO Girls Readymade Lehenga Choli Set</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Angel f Studio</t>
+          <t>Visit the FELIZ THE DESIGNER STUDIO Store</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Girls</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -882,24 +750,14 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>https://www.amazon.in/Angel-Studio-Embroidered-Palazzos-Dupatta/dp/B0CTMQF72N/ref=sr_1_10?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9H4mdcHU7eGQTYCNKMA5n0G9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UNrLnTgRQ7dqEEwrSv2oKeem2h3uMyTsrGAWQtahwQ6gtl9a3204cj6mVxjwzvSIrQ5DJgE8Ts3bbnyrdQCeZLgEfsQizCOM8vVeN111ie3wR3P_xzMY71en669E5fdy4rr4KXpTKNeyJPA-g_rQwa9Fyd6RUkBzT5gV-0ktx6fi9n-3LJNyOQwV7VWVjEllXlw0vPowGSj39lYt6z4vEK8.aKEZH1efaVaVf87RlArggd4qmeHqZ4aBxrM7kHAPjB8&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771073327&amp;sr=8-10</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/61cAcI-2+CL._SX522_.jpg</t>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Designer-Studio-Readymade-Lehenga-Material/dp/B0DDH5G43Y/ref=sr_1_10?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9PE42dWa17UO_uBRFwXWrKLFQtbCu4O0St2V_BYW1D7ZDdxigw7uekjX6yQnHz6NVRnpdOt2Npxm-HUmg06PY_ygH02K80IFlYzb1Qh3vNwOPS99H1Ad288rlOEDffdSDCRpbuljT7eMd2Qs6J4ICRZHkHYtw1HVgD2bO5GqK__P1LsOPhwdlvUuOPSuY8cOcBpozSEOohHWx5GOE9kkQr_ADB_3B0Y3908c4ReXBTWwenInb9zlT_FzHIEUNd7z5S5GAfTZuj7NCUVM3O9wWko.ZlNbXGNJ0xvDik0rgTq9Gj4ZRXEo3RXj6lcHoZMkc5A&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771075593&amp;sr=8-10</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81raHdjMYhL._SX679_.jpg</t>
         </is>
       </c>
     </row>
@@ -911,15 +769,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FELIZ THE DESIGNER STUDIO</t>
+          <t>Visit the FELIZ THE DESIGNER STUDIO Store</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Girls</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -928,44 +782,30 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>https://www.amazon.in/FELIZ-DESIGNER-STUDIO-Embroidery-Traditional/dp/B0DX6N8WY2/ref=sr_1_11?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9H4mdcHU7eGQTYCNKMA5n0G9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UNrLnTgRQ7dqEEwrSv2oKeem2h3uMyTsrGAWQtahwQ6gtl9a3204cj6mVxjwzvSIrQ5DJgE8Ts3bbnyrdQCeZLgEfsQizCOM8vVeN111ie3wR3P_xzMY71en669E5fdy4rr4KXpTKNeyJPA-g_rQwa9Fyd6RUkBzT5gV-0ktx6fi9n-3LJNyOQwV7VWVjEllXlw0vPowGSj39lYt6z4vEK8.aKEZH1efaVaVf87RlArggd4qmeHqZ4aBxrM7kHAPjB8&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771073327&amp;sr=8-11</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/81gmllQTihL._SX522_.jpg</t>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/FELIZ-DESIGNER-STUDIO-Embroidery-Traditional/dp/B0DX6N8WY2/ref=sr_1_11?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9PE42dWa17UO_uBRFwXWrKLFQtbCu4O0St2V_BYW1D7ZDdxigw7uekjX6yQnHz6NVRnpdOt2Npxm-HUmg06PY_ygH02K80IFlYzb1Qh3vNwOPS99H1Ad288rlOEDffdSDCRpbuljT7eMd2Qs6J4ICRZHkHYtw1HVgD2bO5GqK__P1LsOPhwdlvUuOPSuY8cOcBpozSEOohHWx5GOE9kkQr_ADB_3B0Y3908c4ReXBTWwenInb9zlT_FzHIEUNd7z5S5GAfTZuj7NCUVM3O9wWko.ZlNbXGNJ0xvDik0rgTq9Gj4ZRXEo3RXj6lcHoZMkc5A&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771075593&amp;sr=8-11</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81gmllQTihL._SX679_.jpg</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>White Button new lemon sequence work with floral print jacket style indowestern palazzo set for girls</t>
+          <t>A.T.U.N. (ALL THINGS UBER NICE) Baby Girls Cotton Ethnic Floral Lehenga Choli Set with Lace &amp; Dupatta | Traditional 3-Piece Festive Outfit for Kids</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Brand: White Button</t>
+          <t>Visit the A.T.U.N. (ALL THINGS UBER NICE) Store</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>girls</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -974,24 +814,14 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>https://www.amazon.in/White-Button-jacket-indowestern-Years/dp/B0D7S5Q67Z/ref=sr_1_12?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9H4mdcHU7eGQTYCNKMA5n0G9aX_KO-8_FuJJyv_IrC__cXSmmDa7w4FpWeV1Fle6UNrLnTgRQ7dqEEwrSv2oKeem2h3uMyTsrGAWQtahwQ6gtl9a3204cj6mVxjwzvSIrQ5DJgE8Ts3bbnyrdQCeZLgEfsQizCOM8vVeN111ie3wR3P_xzMY71en669E5fdy4rr4KXpTKNeyJPA-g_rQwa9Fyd6RUkBzT5gV-0ktx6fi9n-3LJNyOQwV7VWVjEllXlw0vPowGSj39lYt6z4vEK8.aKEZH1efaVaVf87RlArggd4qmeHqZ4aBxrM7kHAPjB8&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771073327&amp;sr=8-12</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/61eUatCO4xL._SY550_.jpg</t>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/T-U-N-ALL-THINGS-UBER-NICE/dp/B0FV3GTS9L/ref=sr_1_12?dib=eyJ2IjoiMSJ9.Vg5DWdmMwN43gqCwBYWq9PE42dWa17UO_uBRFwXWrKLFQtbCu4O0St2V_BYW1D7ZDdxigw7uekjX6yQnHz6NVRnpdOt2Npxm-HUmg06PY_ygH02K80IFlYzb1Qh3vNwOPS99H1Ad288rlOEDffdSDCRpbuljT7eMd2Qs6J4ICRZHkHYtw1HVgD2bO5GqK__P1LsOPhwdlvUuOPSuY8cOcBpozSEOohHWx5GOE9kkQr_ADB_3B0Y3908c4ReXBTWwenInb9zlT_FzHIEUNd7z5S5GAfTZuj7NCUVM3O9wWko.ZlNbXGNJ0xvDik0rgTq9Gj4ZRXEo3RXj6lcHoZMkc5A&amp;dib_tag=se&amp;keywords=ethnic+dresses+for+kids+girls&amp;qid=1771075593&amp;sr=8-12</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/619Inxk5ZiL._SX679_.jpg</t>
         </is>
       </c>
     </row>
